--- a/doc/LREN3cg_1anos.xlsx
+++ b/doc/LREN3cg_1anos.xlsx
@@ -176,6 +176,9 @@
           <c:tx>
             <c:v>Retornos da Ação</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1679,6 +1682,9 @@
           <c:tx>
             <c:v>Retornos do Mercado</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>

--- a/doc/LREN3cg_1anos.xlsx
+++ b/doc/LREN3cg_1anos.xlsx
@@ -935,742 +935,742 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="246"/>
                 <c:pt idx="0">
-                  <c:v>1.610644257703076</c:v>
+                  <c:v>0.01610644257703076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8270158511371584</c:v>
+                  <c:v>0.008270158511371584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.691045796308945</c:v>
+                  <c:v>0.03691045796308945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6591957811469928</c:v>
+                  <c:v>0.006591957811469928</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.798297314996724</c:v>
+                  <c:v>-0.03798297314996724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.833219877467676</c:v>
+                  <c:v>0.04833219877467676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.662337662337655</c:v>
+                  <c:v>0.02662337662337655</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.6957621758380883</c:v>
+                  <c:v>-0.006957621758380883</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.929936305732483</c:v>
+                  <c:v>-0.02929936305732483</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8530183727033958</c:v>
+                  <c:v>0.008530183727033958</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.455432661027988</c:v>
+                  <c:v>0.00455432661027988</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.331606217616589</c:v>
+                  <c:v>0.02331606217616589</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.151898734177216</c:v>
+                  <c:v>-0.02151898734177216</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6468305304010435</c:v>
+                  <c:v>0.006468305304010435</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.6426735218509005</c:v>
+                  <c:v>-0.006426735218509005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.821474773609303</c:v>
+                  <c:v>0.05821474773609303</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.405867970660146</c:v>
+                  <c:v>-0.01405867970660146</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.735895846249225</c:v>
+                  <c:v>0.01735895846249225</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.3656307129798808</c:v>
+                  <c:v>-0.003656307129798808</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.712538226299687</c:v>
+                  <c:v>0.01712538226299687</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.2405291641611518</c:v>
+                  <c:v>-0.002405291641611518</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.013863773357439</c:v>
+                  <c:v>-0.03013863773357439</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2486016159104931</c:v>
+                  <c:v>0.002486016159104931</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.921884686918807</c:v>
+                  <c:v>0.01921884686918807</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.798053527980526</c:v>
+                  <c:v>0.02798053527980526</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.668639053254419</c:v>
+                  <c:v>-0.03668639053254419</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.457002457002455</c:v>
+                  <c:v>-0.02457002457002455</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.030226700251882</c:v>
+                  <c:v>0.04030226700251882</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.876513317191275</c:v>
+                  <c:v>0.01876513317191275</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.247771836007128</c:v>
+                  <c:v>0.01247771836007128</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.762910798122074</c:v>
+                  <c:v>0.00762910798122074</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1747233546883997</c:v>
+                  <c:v>0.001747233546883997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6976744186046657</c:v>
+                  <c:v>0.006976744186046657</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.193995381062352</c:v>
+                  <c:v>-0.02193995381062352</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.184179456906732</c:v>
+                  <c:v>-0.02184179456906732</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.327700663850329</c:v>
+                  <c:v>0.01327700663850329</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.2382370458606231</c:v>
+                  <c:v>-0.002382370458606231</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.8955223880596996</c:v>
+                  <c:v>0.008955223880596996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-4.142011834319526</c:v>
+                  <c:v>-0.04142011834319526</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-3.209876543209877</c:v>
+                  <c:v>-0.03209876543209877</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5102040816326481</c:v>
+                  <c:v>0.005102040816326481</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.07868020304569</c:v>
+                  <c:v>0.0107868020304569</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.004394224733218</c:v>
+                  <c:v>0.01004394224733218</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.429459291485402</c:v>
+                  <c:v>-0.01429459291485402</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.7566204287515754</c:v>
+                  <c:v>-0.007566204287515754</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.270648030495558</c:v>
+                  <c:v>-0.01270648030495558</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.05920205920207</c:v>
+                  <c:v>0.0205920205920207</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.06305170239596647</c:v>
+                  <c:v>-0.0006305170239596647</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.70347003154574</c:v>
+                  <c:v>-0.0170347003154574</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.979460847240046</c:v>
+                  <c:v>-0.03979460847240046</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-3.743315508021394</c:v>
+                  <c:v>-0.03743315508021394</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-2.083333333333337</c:v>
+                  <c:v>-0.02083333333333337</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.191489361702127</c:v>
+                  <c:v>0.03191489361702127</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.2749140893470892</c:v>
+                  <c:v>-0.002749140893470892</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-3.928325292901447</c:v>
+                  <c:v>-0.03928325292901447</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.793400286944036</c:v>
+                  <c:v>0.01793400286944036</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-2.043692741367154</c:v>
+                  <c:v>-0.02043692741367154</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2877697841726645</c:v>
+                  <c:v>0.002877697841726645</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-2.510760401721657</c:v>
+                  <c:v>-0.02510760401721657</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-4.856512141280356</c:v>
+                  <c:v>-0.04856512141280356</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-2.938901778808967</c:v>
+                  <c:v>-0.02938901778808967</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.541832669322687</c:v>
+                  <c:v>0.04541832669322687</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.7621951219512146</c:v>
+                  <c:v>-0.007621951219512146</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.996927803379411</c:v>
+                  <c:v>-0.01996927803379411</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-4.310344827586199</c:v>
+                  <c:v>-0.04310344827586199</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.995904995904987</c:v>
+                  <c:v>0.04995904995904987</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-7.332293291731662</c:v>
+                  <c:v>-0.07332293291731662</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.08417508417509767</c:v>
+                  <c:v>-0.0008417508417509767</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-2.611625947767471</c:v>
+                  <c:v>-0.02611625947767471</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.249134948096887</c:v>
+                  <c:v>0.02249134948096887</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.891708967851093</c:v>
+                  <c:v>0.03891708967851093</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.6058631921824</c:v>
+                  <c:v>-0.026058631921824</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.2508361204013321</c:v>
+                  <c:v>0.002508361204013321</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1668056713928223</c:v>
+                  <c:v>0.001668056713928223</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.498751040799329</c:v>
+                  <c:v>-0.01498751040799329</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.014370245139462</c:v>
+                  <c:v>0.01014370245139462</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.8368200836820106</c:v>
+                  <c:v>-0.008368200836820106</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.641350210970474</c:v>
+                  <c:v>0.04641350210970474</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.209677419354849</c:v>
+                  <c:v>0.01209677419354849</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.07171314741037</c:v>
+                  <c:v>-0.0207171314741037</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.254678600488203</c:v>
+                  <c:v>0.03254678600488203</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.7880220646178104</c:v>
+                  <c:v>-0.007880220646178104</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-2.46227164416204</c:v>
+                  <c:v>-0.0246227164416204</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.7328990228013033</c:v>
+                  <c:v>-0.007328990228013033</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.148482362592285</c:v>
+                  <c:v>0.01148482362592285</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.540957015409572</c:v>
+                  <c:v>0.01540957015409572</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-3.115015974440882</c:v>
+                  <c:v>-0.03115015974440882</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.555647155812024</c:v>
+                  <c:v>0.02555647155812024</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.340836012861748</c:v>
+                  <c:v>0.04340836012861748</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.1540832049306662</c:v>
+                  <c:v>0.001540832049306662</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-3.923076923076918</c:v>
+                  <c:v>-0.03923076923076918</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.6405124099279513</c:v>
+                  <c:v>0.006405124099279513</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.852824184566429</c:v>
+                  <c:v>0.04852824184566429</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.6828528072837514</c:v>
+                  <c:v>0.006828528072837514</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.3767897513187624</c:v>
+                  <c:v>0.003767897513187624</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.105105105105112</c:v>
+                  <c:v>0.05105105105105112</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.357142857142867</c:v>
+                  <c:v>-0.00357142857142867</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.663082437276001</c:v>
+                  <c:v>0.05663082437276001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.9497964721845387</c:v>
+                  <c:v>0.009497964721845387</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.091397849462352</c:v>
+                  <c:v>0.03091397849462352</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.17340286831813</c:v>
+                  <c:v>0.0117340286831813</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-1.481958762886604</c:v>
+                  <c:v>-0.01481958762886604</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-1.635055591890122</c:v>
+                  <c:v>-0.01635055591890122</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-1.462765957446799</c:v>
+                  <c:v>-0.01462765957446799</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.3373819163292824</c:v>
+                  <c:v>0.003373819163292824</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3.22797579018157</c:v>
+                  <c:v>0.0322797579018157</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.28013029315961</c:v>
+                  <c:v>0.0228013029315961</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-4.071856287425146</c:v>
+                  <c:v>-0.04071856287425146</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-4.431960049937578</c:v>
+                  <c:v>-0.04431960049937578</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.547354670150215</c:v>
+                  <c:v>0.02547354670150215</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.5923566878981</c:v>
+                  <c:v>0.015923566878981</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-0.5642633228840066</c:v>
+                  <c:v>-0.005642633228840066</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.702395964691039</c:v>
+                  <c:v>0.01702395964691039</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.09981401115933</c:v>
+                  <c:v>0.0309981401115933</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-1.322910402886346</c:v>
+                  <c:v>-0.01322910402886346</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.4265691651432091</c:v>
+                  <c:v>-0.004265691651432091</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.468788249693986</c:v>
+                  <c:v>0.01468788249693986</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-1.447527141133886</c:v>
+                  <c:v>-0.01447527141133886</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.264381884944933</c:v>
+                  <c:v>0.02264381884944933</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.2992220227408748</c:v>
+                  <c:v>-0.002992220227408748</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.7202881152461149</c:v>
+                  <c:v>0.007202881152461149</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5.363528009535146</c:v>
+                  <c:v>0.05363528009535146</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.13122171945701</c:v>
+                  <c:v>0.0113122171945701</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-2.237136465324374</c:v>
+                  <c:v>-0.02237136465324374</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4.63386727688786</c:v>
+                  <c:v>0.0463386727688786</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.7654455986878084</c:v>
+                  <c:v>-0.007654455986878084</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.25068870523415</c:v>
+                  <c:v>0.0325068870523415</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-5.442902881536815</c:v>
+                  <c:v>-0.05442902881536815</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.426636568848761</c:v>
+                  <c:v>0.02426636568848761</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-1.873278236914599</c:v>
+                  <c:v>-0.01873278236914599</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.5614823133071489</c:v>
+                  <c:v>0.005614823133071489</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.6141820212171911</c:v>
+                  <c:v>-0.006141820212171911</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.05617977528090679</c:v>
+                  <c:v>-0.0005617977528090679</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.023608768971319</c:v>
+                  <c:v>0.02023608768971319</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-1.928374655647369</c:v>
+                  <c:v>-0.01928374655647369</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.179775280898876</c:v>
+                  <c:v>0.01179775280898876</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-2.94280955024987</c:v>
+                  <c:v>-0.0294280955024987</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-2.288329519450816</c:v>
+                  <c:v>-0.02288329519450816</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.5854800936768045</c:v>
+                  <c:v>-0.005854800936768045</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1.884570082449932</c:v>
+                  <c:v>0.01884570082449932</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.8670520231213952</c:v>
+                  <c:v>-0.008670520231213952</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-0.6997084548104771</c:v>
+                  <c:v>-0.006997084548104771</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.46447445684086</c:v>
+                  <c:v>0.0346447445684086</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.6810442678774065</c:v>
+                  <c:v>0.006810442678774065</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1.521984216459993</c:v>
+                  <c:v>0.01521984216459993</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1.277068295391426</c:v>
+                  <c:v>0.01277068295391426</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>6.907894736842124</c:v>
+                  <c:v>0.06907894736842124</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-3.025641025641024</c:v>
+                  <c:v>-0.03025641025641024</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3.278688524590168</c:v>
+                  <c:v>0.03278688524590168</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-0.8192524321556593</c:v>
+                  <c:v>-0.008192524321556593</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.05162622612286949</c:v>
+                  <c:v>0.0005162622612286949</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-1.444788441692457</c:v>
+                  <c:v>-0.01444788441692457</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>6.963350785340294</c:v>
+                  <c:v>0.06963350785340294</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-2.153695545766032</c:v>
+                  <c:v>-0.02153695545766032</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.1000500250124992</c:v>
+                  <c:v>-0.001000500250124992</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.60390585878818</c:v>
+                  <c:v>0.0260390585878818</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.123474865788189</c:v>
+                  <c:v>0.03123474865788189</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-4.070042593469003</c:v>
+                  <c:v>-0.04070042593469003</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1.677355698075966</c:v>
+                  <c:v>0.01677355698075966</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.8248423095584601</c:v>
+                  <c:v>-0.008248423095584601</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-3.718199608610573</c:v>
+                  <c:v>-0.03718199608610573</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-2.184959349593496</c:v>
+                  <c:v>-0.02184959349593496</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.636363636363638</c:v>
+                  <c:v>0.03636363636363638</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.005012531328321</c:v>
+                  <c:v>0.02005012531328321</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.04914004914002845</c:v>
+                  <c:v>0.0004914004914002845</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>6.139489194499026</c:v>
+                  <c:v>0.06139489194499026</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-4.349838037945386</c:v>
+                  <c:v>-0.04349838037945386</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-0.8224479922593231</c:v>
+                  <c:v>-0.008224479922593231</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-2.439024390243905</c:v>
+                  <c:v>-0.02439024390243905</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-2.849999999999997</c:v>
+                  <c:v>-0.02849999999999997</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-0.257334019557387</c:v>
+                  <c:v>-0.00257334019557387</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.4643962848297267</c:v>
+                  <c:v>0.004643962848297267</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-5.392912172573173</c:v>
+                  <c:v>-0.05392912172573172</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.6514657980456029</c:v>
+                  <c:v>-0.006514657980456029</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.91256830601092</c:v>
+                  <c:v>0.0191256830601092</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.76943699731904</c:v>
+                  <c:v>0.0176943699731904</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-2.687038988408863</c:v>
+                  <c:v>-0.02687038988408863</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-5.684894423389264</c:v>
+                  <c:v>-0.05684894423389264</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.205510907003426</c:v>
+                  <c:v>0.01205510907003426</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.701644923425993</c:v>
+                  <c:v>0.01701644923425993</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2.50976017847182</c:v>
+                  <c:v>0.0250976017847182</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-2.883569096844385</c:v>
+                  <c:v>-0.02883569096844385</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-1.232492997198897</c:v>
+                  <c:v>-0.01232492997198897</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-8.791832104367558</c:v>
+                  <c:v>-0.08791832104367558</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.114427860696533</c:v>
+                  <c:v>0.02114427860696533</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-2.984165651644344</c:v>
+                  <c:v>-0.02984165651644344</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.5649717514124353</c:v>
+                  <c:v>0.005649717514124353</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.433208489388262</c:v>
+                  <c:v>0.03433208489388262</c:v>
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-3.983101991550997</c:v>
+                  <c:v>-0.03983101991550997</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-6.213364595545123</c:v>
+                  <c:v>-0.06213364595545123</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-8.499999999999996</c:v>
+                  <c:v>-0.08499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-5.737704918032782</c:v>
+                  <c:v>-0.05737704918032782</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.391304347826084</c:v>
+                  <c:v>0.02391304347826084</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>6.157112526539277</c:v>
+                  <c:v>0.06157112526539277</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-5.266666666666664</c:v>
+                  <c:v>-0.05266666666666664</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-0.1407459535538447</c:v>
+                  <c:v>-0.001407459535538447</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-1.409443269908384</c:v>
+                  <c:v>-0.01409443269908384</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.215868477483918</c:v>
+                  <c:v>0.02215868477483918</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.5594405594405494</c:v>
+                  <c:v>0.005594405594405494</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-0.06954102920724292</c:v>
+                  <c:v>-0.0006954102920724292</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5.775922059846894</c:v>
+                  <c:v>0.05775922059846894</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>4.276315789473695</c:v>
+                  <c:v>0.04276315789473695</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-2.586750788643533</c:v>
+                  <c:v>-0.02586750788643533</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3.367875647668406</c:v>
+                  <c:v>0.03367875647668406</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.005012531328321</c:v>
+                  <c:v>0.02005012531328321</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-1.719901719901729</c:v>
+                  <c:v>-0.01719901719901729</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-8.499999999999996</c:v>
+                  <c:v>-0.08499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1.639344262295084</c:v>
+                  <c:v>0.01639344262295084</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-4.704301075268824</c:v>
+                  <c:v>-0.04704301075268824</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.750352609308893</c:v>
+                  <c:v>0.02750352609308893</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.1372683596430946</c:v>
+                  <c:v>0.001372683596430946</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>7.539410555174775</c:v>
+                  <c:v>0.07539410555174775</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>6.437221159974515</c:v>
+                  <c:v>0.06437221159974515</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-3.592814371257469</c:v>
+                  <c:v>-0.03592814371257469</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>5.093167701863366</c:v>
+                  <c:v>0.05093167701863366</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-3.309692671394815</c:v>
+                  <c:v>-0.03309692671394815</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-1.650366748166254</c:v>
+                  <c:v>-0.01650366748166254</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-0.9944064636420169</c:v>
+                  <c:v>-0.009944064636420169</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.636534839924676</c:v>
+                  <c:v>0.02636534839924676</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.8562691131498212</c:v>
+                  <c:v>0.008562691131498212</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-0.7883565797452974</c:v>
+                  <c:v>-0.007883565797452974</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3.484107579462115</c:v>
+                  <c:v>0.03484107579462115</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3.544004725339645</c:v>
+                  <c:v>0.03544004725339645</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-0.8556759840273931</c:v>
+                  <c:v>-0.008556759840273931</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-0.4027617951668616</c:v>
+                  <c:v>-0.004027617951668616</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>4.043905257076852</c:v>
+                  <c:v>0.04043905257076852</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-1.499167129372592</c:v>
+                  <c:v>-0.01499167129372592</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.142051860202954</c:v>
+                  <c:v>0.02142051860202954</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>1.379690949227363</c:v>
+                  <c:v>0.01379690949227363</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-6.967882416984217</c:v>
+                  <c:v>-0.06967882416984217</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.5266237565828003</c:v>
+                  <c:v>-0.005266237565828003</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-2.176470588235302</c:v>
+                  <c:v>-0.02176470588235302</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1.98436560432953</c:v>
+                  <c:v>0.0198436560432953</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-1.061320754716977</c:v>
+                  <c:v>-0.01061320754716977</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>4.171632896305111</c:v>
+                  <c:v>0.04171632896305111</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.91762013729977</c:v>
+                  <c:v>0.0291762013729977</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-0.9449694274596854</c:v>
+                  <c:v>-0.009449694274596854</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.8978675645342271</c:v>
+                  <c:v>0.008978675645342271</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-2.558398220244718</c:v>
+                  <c:v>-0.02558398220244718</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>4.965753424657549</c:v>
+                  <c:v>0.04965753424657549</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-1.250679717237635</c:v>
+                  <c:v>-0.01250679717237635</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-0.770925110132159</c:v>
+                  <c:v>-0.00770925110132159</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-2.663706992230852</c:v>
+                  <c:v>-0.02663706992230852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,742 +2441,742 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="246"/>
                 <c:pt idx="0">
-                  <c:v>-0.1489662057293506</c:v>
+                  <c:v>-0.001489662057293506</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.073236219986418</c:v>
+                  <c:v>-0.01073236219986418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.6195558827137737</c:v>
+                  <c:v>-0.006195558827137737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.212503820742517</c:v>
+                  <c:v>0.02212503820742517</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3231589375854993</c:v>
+                  <c:v>0.003231589375854993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.011044434585662</c:v>
+                  <c:v>-0.01011044434585662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.570636858914142</c:v>
+                  <c:v>0.00570636858914142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2747209619943236</c:v>
+                  <c:v>0.002747209619943236</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.8567893356575373</c:v>
+                  <c:v>-0.008567893356575373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.3597819597261354</c:v>
+                  <c:v>-0.003597819597261354</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6226154530346584</c:v>
+                  <c:v>0.006226154530346584</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2761782562433535</c:v>
+                  <c:v>0.002761782562433535</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.3485026858875861</c:v>
+                  <c:v>-0.003485026858875861</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.311985592644671</c:v>
+                  <c:v>0.01311985592644671</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.8101162681375174</c:v>
+                  <c:v>-0.008101162681375174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2513431147695533</c:v>
+                  <c:v>0.002513431147695533</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.9399022750614661</c:v>
+                  <c:v>-0.009399022750614661</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.5955419431682873</c:v>
+                  <c:v>-0.005955419431682873</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.693265714220538</c:v>
+                  <c:v>-0.01693265714220538</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4069075029773828</c:v>
+                  <c:v>0.004069075029773828</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.259473857434811</c:v>
+                  <c:v>0.00259473857434811</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.146742993404203</c:v>
+                  <c:v>-0.00146742993404203</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.4610223131756519</c:v>
+                  <c:v>-0.004610223131756519</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.7400303563472654</c:v>
+                  <c:v>-0.007400303563472654</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3060072866091446</c:v>
+                  <c:v>0.003060072866091446</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.6073491533689968</c:v>
+                  <c:v>0.006073491533689968</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.210533447761863</c:v>
+                  <c:v>-0.01210533447761863</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1032427259094026</c:v>
+                  <c:v>0.001032427259094026</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.108916793978465</c:v>
+                  <c:v>-0.01108916793978465</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.006706708198578326</c:v>
+                  <c:v>-6.706708198578326e-05</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4950087244351531</c:v>
+                  <c:v>0.004950087244351531</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5875573433368642</c:v>
+                  <c:v>0.005875573433368642</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.431980148583011</c:v>
+                  <c:v>0.00431980148583011</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.053484602917343</c:v>
+                  <c:v>0.01053484602917343</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.7940781639881433</c:v>
+                  <c:v>-0.007940781639881433</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5851209911202027</c:v>
+                  <c:v>0.005851209911202027</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.6812752982019665</c:v>
+                  <c:v>0.006812752982019665</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.4929609758334452</c:v>
+                  <c:v>-0.004929609758334452</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.063607924921794</c:v>
+                  <c:v>0.01063607924921794</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.422410860501722</c:v>
+                  <c:v>0.02422410860501722</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.4042043556367947</c:v>
+                  <c:v>-0.004042043556367947</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.1400538184336053</c:v>
+                  <c:v>-0.001400538184336053</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.8602491865725037</c:v>
+                  <c:v>0.008602491865725037</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3080646060036774</c:v>
+                  <c:v>0.003080646060036774</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.008644397689573</c:v>
+                  <c:v>-0.01008644397689573</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.07886248748059099</c:v>
+                  <c:v>0.0007886248748059099</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.014808396368549</c:v>
+                  <c:v>-0.01014808396368549</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.6062938326095058</c:v>
+                  <c:v>0.006062938326095058</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.975408601042016</c:v>
+                  <c:v>0.00975408601042016</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.3453508037111419</c:v>
+                  <c:v>-0.003453508037111419</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.6802829340483596</c:v>
+                  <c:v>0.006802829340483596</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1123130107852255</c:v>
+                  <c:v>0.001123130107852255</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.8169005182657063</c:v>
+                  <c:v>-0.008169005182657063</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.4292458444083103</c:v>
+                  <c:v>0.004292458444083103</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.3407453406259142</c:v>
+                  <c:v>0.003407453406259142</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.3870097942027861</c:v>
+                  <c:v>-0.003870097942027861</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.8259903088068343</c:v>
+                  <c:v>0.008259903088068343</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.3901232982275848</c:v>
+                  <c:v>0.003901232982275848</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.011935651271401</c:v>
+                  <c:v>0.01011935651271401</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.452316076294281</c:v>
+                  <c:v>0.02452316076294281</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.2155243874133794</c:v>
+                  <c:v>-0.002155243874133794</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.364568278829026</c:v>
+                  <c:v>0.01364568278829026</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.07304847227936895</c:v>
+                  <c:v>-0.0007304847227936895</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.1416976892376853</c:v>
+                  <c:v>-0.001416976892376853</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.6591440411184424</c:v>
+                  <c:v>0.006591440411184424</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.2767433987813206</c:v>
+                  <c:v>0.002767433987813206</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.700494554683486</c:v>
+                  <c:v>0.02700494554683486</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.68723043201584</c:v>
+                  <c:v>0.0168723043201584</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.5438453062240001</c:v>
+                  <c:v>0.005438453062240001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.6787230474576522</c:v>
+                  <c:v>-0.006787230474576522</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.285971928173768</c:v>
+                  <c:v>-0.01285971928173768</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.72560489231588</c:v>
+                  <c:v>0.0172560489231588</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.8192542325205276</c:v>
+                  <c:v>-0.008192542325205276</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.8662499445848404</c:v>
+                  <c:v>0.008662499445848404</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.326985108921396</c:v>
+                  <c:v>-0.00326985108921396</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.7447107119048502</c:v>
+                  <c:v>-0.007447107119048502</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.04909696650885476</c:v>
+                  <c:v>-0.0004909696650885476</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.594367946992448</c:v>
+                  <c:v>-0.01594367946992448</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.5371822815658955</c:v>
+                  <c:v>-0.005371822815658955</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.6738428045683031</c:v>
+                  <c:v>0.006738428045683031</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.108064006287857</c:v>
+                  <c:v>-0.01108064006287857</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.2689807002064448</c:v>
+                  <c:v>0.002689807002064448</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.372920212581197</c:v>
+                  <c:v>0.01372920212581197</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.8636244197249621</c:v>
+                  <c:v>0.008636244197249621</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.7821051516542443</c:v>
+                  <c:v>0.007821051516542443</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.2843134665997726</c:v>
+                  <c:v>-0.002843134665997726</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.1657570601045766</c:v>
+                  <c:v>0.001657570601045766</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.423642194738262</c:v>
+                  <c:v>-0.01423642194738262</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.293698794663922</c:v>
+                  <c:v>-0.01293698794663922</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.7206366487803706</c:v>
+                  <c:v>0.007206366487803706</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.228056364638275</c:v>
+                  <c:v>0.01228056364638275</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.117345196290497</c:v>
+                  <c:v>0.00117345196290497</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.494069441449208</c:v>
+                  <c:v>-0.01494069441449208</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.07240817522778942</c:v>
+                  <c:v>-0.0007240817522778942</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.1170950105471635</c:v>
+                  <c:v>-0.001170950105471635</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-2.148363452546442</c:v>
+                  <c:v>-0.02148363452546442</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.7204317499108992</c:v>
+                  <c:v>0.007204317499108992</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.3736642770188037</c:v>
+                  <c:v>-0.003736642770188037</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.3957628117684742</c:v>
+                  <c:v>-0.003957628117684742</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.53102385419459</c:v>
+                  <c:v>-0.0053102385419459</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.028973734091521</c:v>
+                  <c:v>0.01028973734091521</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.176319001763181</c:v>
+                  <c:v>0.00176319001763181</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.9282787060564734</c:v>
+                  <c:v>0.009282787060564734</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.361511711602326</c:v>
+                  <c:v>0.01361511711602326</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.5793852653360299</c:v>
+                  <c:v>-0.005793852653360299</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-1.14718190418559</c:v>
+                  <c:v>-0.0114718190418559</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.3786817460115333</c:v>
+                  <c:v>-0.003786817460115333</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.09839430670184335</c:v>
+                  <c:v>-0.0009839430670184335</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.858443780131669</c:v>
+                  <c:v>0.01858443780131669</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-1.525503041647169</c:v>
+                  <c:v>-0.01525503041647169</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.7339279078409477</c:v>
+                  <c:v>-0.007339279078409477</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.095448297060297</c:v>
+                  <c:v>0.01095448297060297</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.108454120876745</c:v>
+                  <c:v>0.01108454120876745</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-1.016013535453664</c:v>
+                  <c:v>-0.01016013535453664</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.9387565073856186</c:v>
+                  <c:v>-0.009387565073856186</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.703743241847167</c:v>
+                  <c:v>0.01703743241847167</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.50923279937778</c:v>
+                  <c:v>0.0150923279937778</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.8491538788136133</c:v>
+                  <c:v>-0.008491538788136133</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.371362474126391</c:v>
+                  <c:v>0.00371362474126391</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.5277181811890075</c:v>
+                  <c:v>-0.005277181811890075</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.498403215948906</c:v>
+                  <c:v>-0.00498403215948906</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.5470422052906376</c:v>
+                  <c:v>-0.005470422052906376</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-1.062973785626564</c:v>
+                  <c:v>-0.01062973785626564</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.2408111533586776</c:v>
+                  <c:v>-0.002408111533586776</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.04982729353343318</c:v>
+                  <c:v>-0.0004982729353343318</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.5718364262322639</c:v>
+                  <c:v>-0.005718364262322639</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.2429217624392743</c:v>
+                  <c:v>-0.002429217624392743</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.1071058004485037</c:v>
+                  <c:v>-0.001071058004485037</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.893967790622463</c:v>
+                  <c:v>-0.00893967790622463</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.2258830538064971</c:v>
+                  <c:v>-0.002258830538064971</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.3208300343098491</c:v>
+                  <c:v>-0.003208300343098491</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.5699384138490915</c:v>
+                  <c:v>-0.005699384138490915</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.461056520255943</c:v>
+                  <c:v>0.01461056520255943</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.1641803483623638</c:v>
+                  <c:v>0.001641803483623638</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-2.09693211488251</c:v>
+                  <c:v>-0.0209693211488251</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.4524293488951558</c:v>
+                  <c:v>0.004524293488951558</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.5488618944800683</c:v>
+                  <c:v>0.005488618944800683</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.9358077476563142</c:v>
+                  <c:v>0.009358077476563142</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.807203407772495</c:v>
+                  <c:v>0.01807203407772495</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.4517149857084624</c:v>
+                  <c:v>0.004517149857084624</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.2452457124430429</c:v>
+                  <c:v>-0.002452457124430429</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.3197455569747709</c:v>
+                  <c:v>-0.003197455569747709</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.4315654441810812</c:v>
+                  <c:v>0.004315654441810812</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-1.302153206332168</c:v>
+                  <c:v>-0.01302153206332168</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1.358081348902829</c:v>
+                  <c:v>0.01358081348902829</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.3804811465620173</c:v>
+                  <c:v>0.003804811465620173</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-0.6121653015889184</c:v>
+                  <c:v>-0.006121653015889184</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-0.8040505307069901</c:v>
+                  <c:v>-0.008040505307069901</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.253555430654196</c:v>
+                  <c:v>0.01253555430654196</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-1.775840868597811</c:v>
+                  <c:v>-0.01775840868597811</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.3972253014881355</c:v>
+                  <c:v>0.003972253014881355</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-0.4988593918427764</c:v>
+                  <c:v>-0.004988593918427764</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.343077561458927</c:v>
+                  <c:v>0.01343077561458927</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.2500359004248942</c:v>
+                  <c:v>-0.002500359004248942</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.458677933853836</c:v>
+                  <c:v>0.01458677933853836</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-0.7164555023272068</c:v>
+                  <c:v>-0.007164555023272068</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.6089155383405376</c:v>
+                  <c:v>-0.006089155383405376</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.6169259604797528</c:v>
+                  <c:v>-0.006169259604797528</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.03615450586038627</c:v>
+                  <c:v>0.0003615450586038627</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-1.234014283341633</c:v>
+                  <c:v>-0.01234014283341633</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.6671013693133387</c:v>
+                  <c:v>0.006671013693133387</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.1968996646031118</c:v>
+                  <c:v>-0.001968996646031118</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.9262533892453462</c:v>
+                  <c:v>0.009262533892453462</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-0.3883544006508921</c:v>
+                  <c:v>-0.003883544006508921</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.1276570727897219</c:v>
+                  <c:v>0.001276570727897219</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.992410679869461</c:v>
+                  <c:v>0.01992410679869461</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-0.5053862412217947</c:v>
+                  <c:v>-0.005053862412217947</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.270896179252933</c:v>
+                  <c:v>0.00270896179252933</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.325678858409529</c:v>
+                  <c:v>0.01325678858409529</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.7660762586161773</c:v>
+                  <c:v>0.007660762586161773</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.69837438773337</c:v>
+                  <c:v>0.0169837438773337</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.1226034577728852</c:v>
+                  <c:v>0.001226034577728852</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.802559580337348</c:v>
+                  <c:v>0.01802559580337348</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2.058429870309686</c:v>
+                  <c:v>0.02058429870309686</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.5799921077023318</c:v>
+                  <c:v>-0.005799921077023318</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-1.238070205650166</c:v>
+                  <c:v>-0.01238070205650166</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.5166537428092255</c:v>
+                  <c:v>-0.005166537428092255</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.7741654097079609</c:v>
+                  <c:v>0.007741654097079609</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.15257352941176</c:v>
+                  <c:v>0.0115257352941176</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-1.02702653530915</c:v>
+                  <c:v>-0.0102702653530915</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.257682850480434</c:v>
+                  <c:v>-0.00257682850480434</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-0.4803828615287387</c:v>
+                  <c:v>-0.004803828615287387</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.5785229047843954</c:v>
+                  <c:v>0.005785229047843954</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.5919970765576377</c:v>
+                  <c:v>0.005919970765576377</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.170120339390346</c:v>
+                  <c:v>0.01170120339390346</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.7658512872721901</c:v>
+                  <c:v>-0.007658512872721901</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.5209101637409619</c:v>
+                  <c:v>0.005209101637409619</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.1921371563700758</c:v>
+                  <c:v>0.001921371563700758</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.7519916610825739</c:v>
+                  <c:v>0.007519916610825739</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.3118173161304805</c:v>
+                  <c:v>0.003118173161304805</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1.010920201429633</c:v>
+                  <c:v>0.01010920201429633</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.8502301517860467</c:v>
+                  <c:v>0.008502301517860467</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.910720927046029</c:v>
+                  <c:v>0.02910720927046029</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.3703449021090988</c:v>
+                  <c:v>0.003703449021090988</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.1275422606375143</c:v>
+                  <c:v>-0.001275422606375143</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-2.398690056687602</c:v>
+                  <c:v>-0.02398690056687602</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1.466144593531093</c:v>
+                  <c:v>0.01466144593531093</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.5971929001485687</c:v>
+                  <c:v>0.005971929001485687</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-0.8796744816895963</c:v>
+                  <c:v>-0.008796744816895963</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-0.6993948839312369</c:v>
+                  <c:v>-0.006993948839312369</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-0.4024260542125346</c:v>
+                  <c:v>-0.004024260542125346</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.4369039484953818</c:v>
+                  <c:v>0.004369039484953818</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-2.119382459048824</c:v>
+                  <c:v>-0.02119382459048824</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.1386583157259258</c:v>
+                  <c:v>0.001386583157259258</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-0.2474618692309916</c:v>
+                  <c:v>-0.002474618692309916</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-0.1681414266659131</c:v>
+                  <c:v>-0.001681414266659131</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-0.4041538029750158</c:v>
+                  <c:v>-0.004041538029750158</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.636450938670996</c:v>
+                  <c:v>0.00636450938670996</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>4.287804255402716</c:v>
+                  <c:v>0.04287804255402716</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>1.016643192953914</c:v>
+                  <c:v>0.01016643192953914</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-0.1544890966349133</c:v>
+                  <c:v>-0.001544890966349133</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-0.8746527402840876</c:v>
+                  <c:v>-0.008746527402840876</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.3576143282170596</c:v>
+                  <c:v>0.003576143282170596</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-0.3690543962623472</c:v>
+                  <c:v>-0.003690543962623472</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-1.765448882975129</c:v>
+                  <c:v>-0.01765448882975129</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>1.886180778639002</c:v>
+                  <c:v>0.01886180778639002</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.6008795770124031</c:v>
+                  <c:v>0.006008795770124031</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>1.520016052974826</c:v>
+                  <c:v>0.01520016052974826</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.8509647977820167</c:v>
+                  <c:v>0.008509647977820167</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.9221248697996343</c:v>
+                  <c:v>0.009221248697996343</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-2.289939234292215</c:v>
+                  <c:v>-0.02289939234292215</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-0.7693221647953385</c:v>
+                  <c:v>-0.007693221647953385</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.07431408103206749</c:v>
+                  <c:v>0.0007431408103206749</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-1.038418544449016</c:v>
+                  <c:v>-0.01038418544449016</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-1.404746942524293</c:v>
+                  <c:v>-0.01404746942524293</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.7401996591185789</c:v>
+                  <c:v>0.007401996591185789</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-0.2496793999922309</c:v>
+                  <c:v>-0.002496793999922309</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-0.1832798363088028</c:v>
+                  <c:v>-0.001832798363088028</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-0.4796463934837569</c:v>
+                  <c:v>-0.004796463934837569</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-1.382874437285264</c:v>
+                  <c:v>-0.01382874437285264</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-1.378824854514737</c:v>
+                  <c:v>-0.01378824854514737</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.218213915646472</c:v>
+                  <c:v>0.02218213915646472</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-0.4508118433619868</c:v>
+                  <c:v>-0.004508118433619868</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.802957656981107</c:v>
+                  <c:v>0.00802957656981107</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.5226177341617788</c:v>
+                  <c:v>0.005226177341617788</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-1.014513579537291</c:v>
+                  <c:v>-0.01014513579537291</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-0.521289978271644</c:v>
+                  <c:v>-0.00521289978271644</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-0.7369147960004208</c:v>
+                  <c:v>-0.007369147960004208</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-0.1530135161939339</c:v>
+                  <c:v>-0.001530135161939339</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-1.714630523579652</c:v>
+                  <c:v>-0.01714630523579652</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.5300880991488732</c:v>
+                  <c:v>0.005300880991488732</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-1.967924027702805</c:v>
+                  <c:v>-0.01967924027702805</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-0.5477457804467512</c:v>
+                  <c:v>-0.005477457804467512</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.4230551342263578</c:v>
+                  <c:v>0.004230551342263578</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>1.656155082250432</c:v>
+                  <c:v>0.01656155082250432</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-1.090531576723075</c:v>
+                  <c:v>-0.01090531576723075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3605,10 +3605,10 @@
         <v>45331</v>
       </c>
       <c r="B2">
-        <v>1.610644257703076</v>
+        <v>0.01610644257703076</v>
       </c>
       <c r="C2">
-        <v>-0.1489662057293506</v>
+        <v>-0.001489662057293506</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3619,10 +3619,10 @@
         <v>45330</v>
       </c>
       <c r="B3">
-        <v>0.8270158511371584</v>
+        <v>0.008270158511371584</v>
       </c>
       <c r="C3">
-        <v>-1.073236219986418</v>
+        <v>-0.01073236219986418</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3633,10 +3633,10 @@
         <v>45329</v>
       </c>
       <c r="B4">
-        <v>3.691045796308945</v>
+        <v>0.03691045796308945</v>
       </c>
       <c r="C4">
-        <v>-0.6195558827137737</v>
+        <v>-0.006195558827137737</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3647,10 +3647,10 @@
         <v>45328</v>
       </c>
       <c r="B5">
-        <v>0.6591957811469928</v>
+        <v>0.006591957811469928</v>
       </c>
       <c r="C5">
-        <v>2.212503820742517</v>
+        <v>0.02212503820742517</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -3661,10 +3661,10 @@
         <v>45327</v>
       </c>
       <c r="B6">
-        <v>-3.798297314996724</v>
+        <v>-0.03798297314996724</v>
       </c>
       <c r="C6">
-        <v>0.3231589375854993</v>
+        <v>0.003231589375854993</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -3675,10 +3675,10 @@
         <v>45324</v>
       </c>
       <c r="B7">
-        <v>4.833219877467676</v>
+        <v>0.04833219877467676</v>
       </c>
       <c r="C7">
-        <v>-1.011044434585662</v>
+        <v>-0.01011044434585662</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -3689,10 +3689,10 @@
         <v>45323</v>
       </c>
       <c r="B8">
-        <v>2.662337662337655</v>
+        <v>0.02662337662337655</v>
       </c>
       <c r="C8">
-        <v>0.570636858914142</v>
+        <v>0.00570636858914142</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -3703,10 +3703,10 @@
         <v>45322</v>
       </c>
       <c r="B9">
-        <v>-0.6957621758380883</v>
+        <v>-0.006957621758380883</v>
       </c>
       <c r="C9">
-        <v>0.2747209619943236</v>
+        <v>0.002747209619943236</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -3717,10 +3717,10 @@
         <v>45321</v>
       </c>
       <c r="B10">
-        <v>-2.929936305732483</v>
+        <v>-0.02929936305732483</v>
       </c>
       <c r="C10">
-        <v>-0.8567893356575373</v>
+        <v>-0.008567893356575373</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -3731,10 +3731,10 @@
         <v>45320</v>
       </c>
       <c r="B11">
-        <v>0.8530183727033958</v>
+        <v>0.008530183727033958</v>
       </c>
       <c r="C11">
-        <v>-0.3597819597261354</v>
+        <v>-0.003597819597261354</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -3745,10 +3745,10 @@
         <v>45317</v>
       </c>
       <c r="B12">
-        <v>0.455432661027988</v>
+        <v>0.00455432661027988</v>
       </c>
       <c r="C12">
-        <v>0.6226154530346584</v>
+        <v>0.006226154530346584</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -3759,10 +3759,10 @@
         <v>45316</v>
       </c>
       <c r="B13">
-        <v>2.331606217616589</v>
+        <v>0.02331606217616589</v>
       </c>
       <c r="C13">
-        <v>0.2761782562433535</v>
+        <v>0.002761782562433535</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -3773,10 +3773,10 @@
         <v>45315</v>
       </c>
       <c r="B14">
-        <v>-2.151898734177216</v>
+        <v>-0.02151898734177216</v>
       </c>
       <c r="C14">
-        <v>-0.3485026858875861</v>
+        <v>-0.003485026858875861</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -3787,10 +3787,10 @@
         <v>45314</v>
       </c>
       <c r="B15">
-        <v>0.6468305304010435</v>
+        <v>0.006468305304010435</v>
       </c>
       <c r="C15">
-        <v>1.311985592644671</v>
+        <v>0.01311985592644671</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -3801,10 +3801,10 @@
         <v>45313</v>
       </c>
       <c r="B16">
-        <v>-0.6426735218509005</v>
+        <v>-0.006426735218509005</v>
       </c>
       <c r="C16">
-        <v>-0.8101162681375174</v>
+        <v>-0.008101162681375174</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -3815,10 +3815,10 @@
         <v>45310</v>
       </c>
       <c r="B17">
-        <v>5.821474773609303</v>
+        <v>0.05821474773609303</v>
       </c>
       <c r="C17">
-        <v>0.2513431147695533</v>
+        <v>0.002513431147695533</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -3829,10 +3829,10 @@
         <v>45309</v>
       </c>
       <c r="B18">
-        <v>-1.405867970660146</v>
+        <v>-0.01405867970660146</v>
       </c>
       <c r="C18">
-        <v>-0.9399022750614661</v>
+        <v>-0.009399022750614661</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -3843,10 +3843,10 @@
         <v>45308</v>
       </c>
       <c r="B19">
-        <v>1.735895846249225</v>
+        <v>0.01735895846249225</v>
       </c>
       <c r="C19">
-        <v>-0.5955419431682873</v>
+        <v>-0.005955419431682873</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -3857,10 +3857,10 @@
         <v>45307</v>
       </c>
       <c r="B20">
-        <v>-0.3656307129798808</v>
+        <v>-0.003656307129798808</v>
       </c>
       <c r="C20">
-        <v>-1.693265714220538</v>
+        <v>-0.01693265714220538</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -3871,10 +3871,10 @@
         <v>45306</v>
       </c>
       <c r="B21">
-        <v>1.712538226299687</v>
+        <v>0.01712538226299687</v>
       </c>
       <c r="C21">
-        <v>0.4069075029773828</v>
+        <v>0.004069075029773828</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -3885,10 +3885,10 @@
         <v>45303</v>
       </c>
       <c r="B22">
-        <v>-0.2405291641611518</v>
+        <v>-0.002405291641611518</v>
       </c>
       <c r="C22">
-        <v>0.259473857434811</v>
+        <v>0.00259473857434811</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -3899,10 +3899,10 @@
         <v>45302</v>
       </c>
       <c r="B23">
-        <v>-3.013863773357439</v>
+        <v>-0.03013863773357439</v>
       </c>
       <c r="C23">
-        <v>-0.146742993404203</v>
+        <v>-0.00146742993404203</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -3913,10 +3913,10 @@
         <v>45301</v>
       </c>
       <c r="B24">
-        <v>0.2486016159104931</v>
+        <v>0.002486016159104931</v>
       </c>
       <c r="C24">
-        <v>-0.4610223131756519</v>
+        <v>-0.004610223131756519</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -3927,10 +3927,10 @@
         <v>45300</v>
       </c>
       <c r="B25">
-        <v>1.921884686918807</v>
+        <v>0.01921884686918807</v>
       </c>
       <c r="C25">
-        <v>-0.7400303563472654</v>
+        <v>-0.007400303563472654</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -3941,10 +3941,10 @@
         <v>45299</v>
       </c>
       <c r="B26">
-        <v>2.798053527980526</v>
+        <v>0.02798053527980526</v>
       </c>
       <c r="C26">
-        <v>0.3060072866091446</v>
+        <v>0.003060072866091446</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -3955,10 +3955,10 @@
         <v>45296</v>
       </c>
       <c r="B27">
-        <v>-3.668639053254419</v>
+        <v>-0.03668639053254419</v>
       </c>
       <c r="C27">
-        <v>0.6073491533689968</v>
+        <v>0.006073491533689968</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -3969,10 +3969,10 @@
         <v>45295</v>
       </c>
       <c r="B28">
-        <v>-2.457002457002455</v>
+        <v>-0.02457002457002455</v>
       </c>
       <c r="C28">
-        <v>-1.210533447761863</v>
+        <v>-0.01210533447761863</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -3983,10 +3983,10 @@
         <v>45294</v>
       </c>
       <c r="B29">
-        <v>4.030226700251882</v>
+        <v>0.04030226700251882</v>
       </c>
       <c r="C29">
-        <v>0.1032427259094026</v>
+        <v>0.001032427259094026</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -3997,10 +3997,10 @@
         <v>45293</v>
       </c>
       <c r="B30">
-        <v>1.876513317191275</v>
+        <v>0.01876513317191275</v>
       </c>
       <c r="C30">
-        <v>-1.108916793978465</v>
+        <v>-0.01108916793978465</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -4011,10 +4011,10 @@
         <v>45288</v>
       </c>
       <c r="B31">
-        <v>1.247771836007128</v>
+        <v>0.01247771836007128</v>
       </c>
       <c r="C31">
-        <v>-0.006706708198578326</v>
+        <v>-6.706708198578326E-05</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -4025,10 +4025,10 @@
         <v>45287</v>
       </c>
       <c r="B32">
-        <v>0.762910798122074</v>
+        <v>0.00762910798122074</v>
       </c>
       <c r="C32">
-        <v>0.4950087244351531</v>
+        <v>0.004950087244351531</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -4039,10 +4039,10 @@
         <v>45286</v>
       </c>
       <c r="B33">
-        <v>0.1747233546883997</v>
+        <v>0.001747233546883997</v>
       </c>
       <c r="C33">
-        <v>0.5875573433368642</v>
+        <v>0.005875573433368642</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -4053,10 +4053,10 @@
         <v>45282</v>
       </c>
       <c r="B34">
-        <v>0.6976744186046657</v>
+        <v>0.006976744186046657</v>
       </c>
       <c r="C34">
-        <v>0.431980148583011</v>
+        <v>0.00431980148583011</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -4067,10 +4067,10 @@
         <v>45281</v>
       </c>
       <c r="B35">
-        <v>-2.193995381062352</v>
+        <v>-0.02193995381062352</v>
       </c>
       <c r="C35">
-        <v>1.053484602917343</v>
+        <v>0.01053484602917343</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -4081,10 +4081,10 @@
         <v>45280</v>
       </c>
       <c r="B36">
-        <v>-2.184179456906732</v>
+        <v>-0.02184179456906732</v>
       </c>
       <c r="C36">
-        <v>-0.7940781639881433</v>
+        <v>-0.007940781639881433</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -4095,10 +4095,10 @@
         <v>45279</v>
       </c>
       <c r="B37">
-        <v>1.327700663850329</v>
+        <v>0.01327700663850329</v>
       </c>
       <c r="C37">
-        <v>0.5851209911202027</v>
+        <v>0.005851209911202027</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -4109,10 +4109,10 @@
         <v>45278</v>
       </c>
       <c r="B38">
-        <v>-0.2382370458606231</v>
+        <v>-0.002382370458606231</v>
       </c>
       <c r="C38">
-        <v>0.6812752982019665</v>
+        <v>0.006812752982019665</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>-0.4929609758334452</v>
+        <v>-0.004929609758334452</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -4137,10 +4137,10 @@
         <v>45274</v>
       </c>
       <c r="B40">
-        <v>0.8955223880596996</v>
+        <v>0.008955223880596996</v>
       </c>
       <c r="C40">
-        <v>1.063607924921794</v>
+        <v>0.01063607924921794</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -4151,10 +4151,10 @@
         <v>45273</v>
       </c>
       <c r="B41">
-        <v>-4.142011834319526</v>
+        <v>-0.04142011834319526</v>
       </c>
       <c r="C41">
-        <v>2.422410860501722</v>
+        <v>0.02422410860501722</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -4165,10 +4165,10 @@
         <v>45272</v>
       </c>
       <c r="B42">
-        <v>-3.209876543209877</v>
+        <v>-0.03209876543209877</v>
       </c>
       <c r="C42">
-        <v>-0.4042043556367947</v>
+        <v>-0.004042043556367947</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -4179,10 +4179,10 @@
         <v>45271</v>
       </c>
       <c r="B43">
-        <v>0.5102040816326481</v>
+        <v>0.005102040816326481</v>
       </c>
       <c r="C43">
-        <v>-0.1400538184336053</v>
+        <v>-0.001400538184336053</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -4193,10 +4193,10 @@
         <v>45268</v>
       </c>
       <c r="B44">
-        <v>1.07868020304569</v>
+        <v>0.0107868020304569</v>
       </c>
       <c r="C44">
-        <v>0.8602491865725037</v>
+        <v>0.008602491865725037</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -4207,10 +4207,10 @@
         <v>45267</v>
       </c>
       <c r="B45">
-        <v>1.004394224733218</v>
+        <v>0.01004394224733218</v>
       </c>
       <c r="C45">
-        <v>0.3080646060036774</v>
+        <v>0.003080646060036774</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -4221,10 +4221,10 @@
         <v>45266</v>
       </c>
       <c r="B46">
-        <v>-1.429459291485402</v>
+        <v>-0.01429459291485402</v>
       </c>
       <c r="C46">
-        <v>-1.008644397689573</v>
+        <v>-0.01008644397689573</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -4235,10 +4235,10 @@
         <v>45265</v>
       </c>
       <c r="B47">
-        <v>-0.7566204287515754</v>
+        <v>-0.007566204287515754</v>
       </c>
       <c r="C47">
-        <v>0.07886248748059099</v>
+        <v>0.0007886248748059099</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -4249,10 +4249,10 @@
         <v>45264</v>
       </c>
       <c r="B48">
-        <v>-1.270648030495558</v>
+        <v>-0.01270648030495558</v>
       </c>
       <c r="C48">
-        <v>-1.014808396368549</v>
+        <v>-0.01014808396368549</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -4263,10 +4263,10 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>2.05920205920207</v>
+        <v>0.0205920205920207</v>
       </c>
       <c r="C49">
-        <v>0.6062938326095058</v>
+        <v>0.006062938326095058</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -4277,10 +4277,10 @@
         <v>45260</v>
       </c>
       <c r="B50">
-        <v>-0.06305170239596647</v>
+        <v>-0.0006305170239596647</v>
       </c>
       <c r="C50">
-        <v>0.975408601042016</v>
+        <v>0.00975408601042016</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -4291,10 +4291,10 @@
         <v>45259</v>
       </c>
       <c r="B51">
-        <v>-1.70347003154574</v>
+        <v>-0.0170347003154574</v>
       </c>
       <c r="C51">
-        <v>-0.3453508037111419</v>
+        <v>-0.003453508037111419</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
@@ -4305,10 +4305,10 @@
         <v>45258</v>
       </c>
       <c r="B52">
-        <v>-3.979460847240046</v>
+        <v>-0.03979460847240046</v>
       </c>
       <c r="C52">
-        <v>0.6802829340483596</v>
+        <v>0.006802829340483596</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -4319,10 +4319,10 @@
         <v>45257</v>
       </c>
       <c r="B53">
-        <v>-3.743315508021394</v>
+        <v>-0.03743315508021394</v>
       </c>
       <c r="C53">
-        <v>0.1123130107852255</v>
+        <v>0.001123130107852255</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
@@ -4333,10 +4333,10 @@
         <v>45254</v>
       </c>
       <c r="B54">
-        <v>-2.083333333333337</v>
+        <v>-0.02083333333333337</v>
       </c>
       <c r="C54">
-        <v>-0.8169005182657063</v>
+        <v>-0.008169005182657063</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
@@ -4347,10 +4347,10 @@
         <v>45253</v>
       </c>
       <c r="B55">
-        <v>3.191489361702127</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="C55">
-        <v>0.4292458444083103</v>
+        <v>0.004292458444083103</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -4361,10 +4361,10 @@
         <v>45252</v>
       </c>
       <c r="B56">
-        <v>-0.2749140893470892</v>
+        <v>-0.002749140893470892</v>
       </c>
       <c r="C56">
-        <v>0.3407453406259142</v>
+        <v>0.003407453406259142</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -4375,10 +4375,10 @@
         <v>45251</v>
       </c>
       <c r="B57">
-        <v>-3.928325292901447</v>
+        <v>-0.03928325292901447</v>
       </c>
       <c r="C57">
-        <v>-0.3870097942027861</v>
+        <v>-0.003870097942027861</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -4389,10 +4389,10 @@
         <v>45250</v>
       </c>
       <c r="B58">
-        <v>1.793400286944036</v>
+        <v>0.01793400286944036</v>
       </c>
       <c r="C58">
-        <v>0.8259903088068343</v>
+        <v>0.008259903088068343</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
@@ -4403,10 +4403,10 @@
         <v>45247</v>
       </c>
       <c r="B59">
-        <v>-2.043692741367154</v>
+        <v>-0.02043692741367154</v>
       </c>
       <c r="C59">
-        <v>0.3901232982275848</v>
+        <v>0.003901232982275848</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -4417,10 +4417,10 @@
         <v>45246</v>
       </c>
       <c r="B60">
-        <v>0.2877697841726645</v>
+        <v>0.002877697841726645</v>
       </c>
       <c r="C60">
-        <v>1.011935651271401</v>
+        <v>0.01011935651271401</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -4431,10 +4431,10 @@
         <v>45244</v>
       </c>
       <c r="B61">
-        <v>-2.510760401721657</v>
+        <v>-0.02510760401721657</v>
       </c>
       <c r="C61">
-        <v>2.452316076294281</v>
+        <v>0.02452316076294281</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -4445,10 +4445,10 @@
         <v>45243</v>
       </c>
       <c r="B62">
-        <v>-4.856512141280356</v>
+        <v>-0.04856512141280356</v>
       </c>
       <c r="C62">
-        <v>-0.2155243874133794</v>
+        <v>-0.002155243874133794</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -4459,10 +4459,10 @@
         <v>45240</v>
       </c>
       <c r="B63">
-        <v>-2.938901778808967</v>
+        <v>-0.02938901778808967</v>
       </c>
       <c r="C63">
-        <v>1.364568278829026</v>
+        <v>0.01364568278829026</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -4473,10 +4473,10 @@
         <v>45239</v>
       </c>
       <c r="B64">
-        <v>4.541832669322687</v>
+        <v>0.04541832669322687</v>
       </c>
       <c r="C64">
-        <v>-0.07304847227936895</v>
+        <v>-0.0007304847227936895</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -4487,10 +4487,10 @@
         <v>45238</v>
       </c>
       <c r="B65">
-        <v>-0.7621951219512146</v>
+        <v>-0.007621951219512146</v>
       </c>
       <c r="C65">
-        <v>-0.1416976892376853</v>
+        <v>-0.001416976892376853</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
@@ -4501,10 +4501,10 @@
         <v>45237</v>
       </c>
       <c r="B66">
-        <v>-1.996927803379411</v>
+        <v>-0.01996927803379411</v>
       </c>
       <c r="C66">
-        <v>0.6591440411184424</v>
+        <v>0.006591440411184424</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
@@ -4515,10 +4515,10 @@
         <v>45236</v>
       </c>
       <c r="B67">
-        <v>-4.310344827586199</v>
+        <v>-0.04310344827586199</v>
       </c>
       <c r="C67">
-        <v>0.2767433987813206</v>
+        <v>0.002767433987813206</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -4529,10 +4529,10 @@
         <v>45233</v>
       </c>
       <c r="B68">
-        <v>4.995904995904987</v>
+        <v>0.04995904995904987</v>
       </c>
       <c r="C68">
-        <v>2.700494554683486</v>
+        <v>0.02700494554683486</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
@@ -4543,10 +4543,10 @@
         <v>45231</v>
       </c>
       <c r="B69">
-        <v>-7.332293291731662</v>
+        <v>-0.07332293291731662</v>
       </c>
       <c r="C69">
-        <v>1.68723043201584</v>
+        <v>0.0168723043201584</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
@@ -4557,10 +4557,10 @@
         <v>45230</v>
       </c>
       <c r="B70">
-        <v>-0.08417508417509767</v>
+        <v>-0.0008417508417509767</v>
       </c>
       <c r="C70">
-        <v>0.5438453062240001</v>
+        <v>0.005438453062240001</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -4571,10 +4571,10 @@
         <v>45229</v>
       </c>
       <c r="B71">
-        <v>-2.611625947767471</v>
+        <v>-0.02611625947767471</v>
       </c>
       <c r="C71">
-        <v>-0.6787230474576522</v>
+        <v>-0.006787230474576522</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -4585,10 +4585,10 @@
         <v>45226</v>
       </c>
       <c r="B72">
-        <v>2.249134948096887</v>
+        <v>0.02249134948096887</v>
       </c>
       <c r="C72">
-        <v>-1.285971928173768</v>
+        <v>-0.01285971928173768</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -4599,10 +4599,10 @@
         <v>45225</v>
       </c>
       <c r="B73">
-        <v>3.891708967851093</v>
+        <v>0.03891708967851093</v>
       </c>
       <c r="C73">
-        <v>1.72560489231588</v>
+        <v>0.0172560489231588</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -4613,10 +4613,10 @@
         <v>45224</v>
       </c>
       <c r="B74">
-        <v>-2.6058631921824</v>
+        <v>-0.026058631921824</v>
       </c>
       <c r="C74">
-        <v>-0.8192542325205276</v>
+        <v>-0.008192542325205276</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -4627,10 +4627,10 @@
         <v>45223</v>
       </c>
       <c r="B75">
-        <v>0.2508361204013321</v>
+        <v>0.002508361204013321</v>
       </c>
       <c r="C75">
-        <v>0.8662499445848404</v>
+        <v>0.008662499445848404</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -4641,10 +4641,10 @@
         <v>45222</v>
       </c>
       <c r="B76">
-        <v>0.1668056713928223</v>
+        <v>0.001668056713928223</v>
       </c>
       <c r="C76">
-        <v>-0.326985108921396</v>
+        <v>-0.00326985108921396</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -4655,10 +4655,10 @@
         <v>45219</v>
       </c>
       <c r="B77">
-        <v>-1.498751040799329</v>
+        <v>-0.01498751040799329</v>
       </c>
       <c r="C77">
-        <v>-0.7447107119048502</v>
+        <v>-0.007447107119048502</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -4669,10 +4669,10 @@
         <v>45218</v>
       </c>
       <c r="B78">
-        <v>1.014370245139462</v>
+        <v>0.01014370245139462</v>
       </c>
       <c r="C78">
-        <v>-0.04909696650885476</v>
+        <v>-0.0004909696650885476</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -4683,10 +4683,10 @@
         <v>45217</v>
       </c>
       <c r="B79">
-        <v>-0.8368200836820106</v>
+        <v>-0.008368200836820106</v>
       </c>
       <c r="C79">
-        <v>-1.594367946992448</v>
+        <v>-0.01594367946992448</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -4697,10 +4697,10 @@
         <v>45216</v>
       </c>
       <c r="B80">
-        <v>4.641350210970474</v>
+        <v>0.04641350210970474</v>
       </c>
       <c r="C80">
-        <v>-0.5371822815658955</v>
+        <v>-0.005371822815658955</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -4711,10 +4711,10 @@
         <v>45215</v>
       </c>
       <c r="B81">
-        <v>1.209677419354849</v>
+        <v>0.01209677419354849</v>
       </c>
       <c r="C81">
-        <v>0.6738428045683031</v>
+        <v>0.006738428045683031</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -4725,10 +4725,10 @@
         <v>45212</v>
       </c>
       <c r="B82">
-        <v>-2.07171314741037</v>
+        <v>-0.0207171314741037</v>
       </c>
       <c r="C82">
-        <v>-1.108064006287857</v>
+        <v>-0.01108064006287857</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -4739,10 +4739,10 @@
         <v>45210</v>
       </c>
       <c r="B83">
-        <v>3.254678600488203</v>
+        <v>0.03254678600488203</v>
       </c>
       <c r="C83">
-        <v>0.2689807002064448</v>
+        <v>0.002689807002064448</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -4753,10 +4753,10 @@
         <v>45209</v>
       </c>
       <c r="B84">
-        <v>-0.7880220646178104</v>
+        <v>-0.007880220646178104</v>
       </c>
       <c r="C84">
-        <v>1.372920212581197</v>
+        <v>0.01372920212581197</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -4767,10 +4767,10 @@
         <v>45208</v>
       </c>
       <c r="B85">
-        <v>-2.46227164416204</v>
+        <v>-0.0246227164416204</v>
       </c>
       <c r="C85">
-        <v>0.8636244197249621</v>
+        <v>0.008636244197249621</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -4781,10 +4781,10 @@
         <v>45205</v>
       </c>
       <c r="B86">
-        <v>-0.7328990228013033</v>
+        <v>-0.007328990228013033</v>
       </c>
       <c r="C86">
-        <v>0.7821051516542443</v>
+        <v>0.007821051516542443</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -4795,10 +4795,10 @@
         <v>45204</v>
       </c>
       <c r="B87">
-        <v>1.148482362592285</v>
+        <v>0.01148482362592285</v>
       </c>
       <c r="C87">
-        <v>-0.2843134665997726</v>
+        <v>-0.002843134665997726</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -4809,10 +4809,10 @@
         <v>45203</v>
       </c>
       <c r="B88">
-        <v>1.540957015409572</v>
+        <v>0.01540957015409572</v>
       </c>
       <c r="C88">
-        <v>0.1657570601045766</v>
+        <v>0.001657570601045766</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -4823,10 +4823,10 @@
         <v>45202</v>
       </c>
       <c r="B89">
-        <v>-3.115015974440882</v>
+        <v>-0.03115015974440882</v>
       </c>
       <c r="C89">
-        <v>-1.423642194738262</v>
+        <v>-0.01423642194738262</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -4837,10 +4837,10 @@
         <v>45201</v>
       </c>
       <c r="B90">
-        <v>2.555647155812024</v>
+        <v>0.02555647155812024</v>
       </c>
       <c r="C90">
-        <v>-1.293698794663922</v>
+        <v>-0.01293698794663922</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -4851,10 +4851,10 @@
         <v>45198</v>
       </c>
       <c r="B91">
-        <v>4.340836012861748</v>
+        <v>0.04340836012861748</v>
       </c>
       <c r="C91">
-        <v>0.7206366487803706</v>
+        <v>0.007206366487803706</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -4865,10 +4865,10 @@
         <v>45197</v>
       </c>
       <c r="B92">
-        <v>0.1540832049306662</v>
+        <v>0.001540832049306662</v>
       </c>
       <c r="C92">
-        <v>1.228056364638275</v>
+        <v>0.01228056364638275</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -4879,10 +4879,10 @@
         <v>45196</v>
       </c>
       <c r="B93">
-        <v>-3.923076923076918</v>
+        <v>-0.03923076923076918</v>
       </c>
       <c r="C93">
-        <v>0.117345196290497</v>
+        <v>0.00117345196290497</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -4893,10 +4893,10 @@
         <v>45195</v>
       </c>
       <c r="B94">
-        <v>0.6405124099279513</v>
+        <v>0.006405124099279513</v>
       </c>
       <c r="C94">
-        <v>-1.494069441449208</v>
+        <v>-0.01494069441449208</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -4907,10 +4907,10 @@
         <v>45194</v>
       </c>
       <c r="B95">
-        <v>4.852824184566429</v>
+        <v>0.04852824184566429</v>
       </c>
       <c r="C95">
-        <v>-0.07240817522778942</v>
+        <v>-0.0007240817522778942</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -4921,10 +4921,10 @@
         <v>45191</v>
       </c>
       <c r="B96">
-        <v>0.6828528072837514</v>
+        <v>0.006828528072837514</v>
       </c>
       <c r="C96">
-        <v>-0.1170950105471635</v>
+        <v>-0.001170950105471635</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -4935,10 +4935,10 @@
         <v>45190</v>
       </c>
       <c r="B97">
-        <v>0.3767897513187624</v>
+        <v>0.003767897513187624</v>
       </c>
       <c r="C97">
-        <v>-2.148363452546442</v>
+        <v>-0.02148363452546442</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -4949,10 +4949,10 @@
         <v>45189</v>
       </c>
       <c r="B98">
-        <v>5.105105105105112</v>
+        <v>0.05105105105105112</v>
       </c>
       <c r="C98">
-        <v>0.7204317499108992</v>
+        <v>0.007204317499108992</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -4963,10 +4963,10 @@
         <v>45188</v>
       </c>
       <c r="B99">
-        <v>-0.357142857142867</v>
+        <v>-0.00357142857142867</v>
       </c>
       <c r="C99">
-        <v>-0.3736642770188037</v>
+        <v>-0.003736642770188037</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -4977,10 +4977,10 @@
         <v>45187</v>
       </c>
       <c r="B100">
-        <v>5.663082437276001</v>
+        <v>0.05663082437276001</v>
       </c>
       <c r="C100">
-        <v>-0.3957628117684742</v>
+        <v>-0.003957628117684742</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -4991,10 +4991,10 @@
         <v>45184</v>
       </c>
       <c r="B101">
-        <v>0.9497964721845387</v>
+        <v>0.009497964721845387</v>
       </c>
       <c r="C101">
-        <v>-0.53102385419459</v>
+        <v>-0.0053102385419459</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -5005,10 +5005,10 @@
         <v>45183</v>
       </c>
       <c r="B102">
-        <v>3.091397849462352</v>
+        <v>0.03091397849462352</v>
       </c>
       <c r="C102">
-        <v>1.028973734091521</v>
+        <v>0.01028973734091521</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -5019,10 +5019,10 @@
         <v>45182</v>
       </c>
       <c r="B103">
-        <v>1.17340286831813</v>
+        <v>0.0117340286831813</v>
       </c>
       <c r="C103">
-        <v>0.176319001763181</v>
+        <v>0.00176319001763181</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -5033,10 +5033,10 @@
         <v>45181</v>
       </c>
       <c r="B104">
-        <v>-1.481958762886604</v>
+        <v>-0.01481958762886604</v>
       </c>
       <c r="C104">
-        <v>0.9282787060564734</v>
+        <v>0.009282787060564734</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -5047,10 +5047,10 @@
         <v>45180</v>
       </c>
       <c r="B105">
-        <v>-1.635055591890122</v>
+        <v>-0.01635055591890122</v>
       </c>
       <c r="C105">
-        <v>1.361511711602326</v>
+        <v>0.01361511711602326</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -5061,10 +5061,10 @@
         <v>45177</v>
       </c>
       <c r="B106">
-        <v>-1.462765957446799</v>
+        <v>-0.01462765957446799</v>
       </c>
       <c r="C106">
-        <v>-0.5793852653360299</v>
+        <v>-0.005793852653360299</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -5075,10 +5075,10 @@
         <v>45175</v>
       </c>
       <c r="B107">
-        <v>0.3373819163292824</v>
+        <v>0.003373819163292824</v>
       </c>
       <c r="C107">
-        <v>-1.14718190418559</v>
+        <v>-0.0114718190418559</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -5089,10 +5089,10 @@
         <v>45174</v>
       </c>
       <c r="B108">
-        <v>3.22797579018157</v>
+        <v>0.0322797579018157</v>
       </c>
       <c r="C108">
-        <v>-0.3786817460115333</v>
+        <v>-0.003786817460115333</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -5103,10 +5103,10 @@
         <v>45173</v>
       </c>
       <c r="B109">
-        <v>2.28013029315961</v>
+        <v>0.0228013029315961</v>
       </c>
       <c r="C109">
-        <v>-0.09839430670184335</v>
+        <v>-0.0009839430670184335</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -5117,10 +5117,10 @@
         <v>45170</v>
       </c>
       <c r="B110">
-        <v>-4.071856287425146</v>
+        <v>-0.04071856287425146</v>
       </c>
       <c r="C110">
-        <v>1.858443780131669</v>
+        <v>0.01858443780131669</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -5131,10 +5131,10 @@
         <v>45169</v>
       </c>
       <c r="B111">
-        <v>-4.431960049937578</v>
+        <v>-0.04431960049937578</v>
       </c>
       <c r="C111">
-        <v>-1.525503041647169</v>
+        <v>-0.01525503041647169</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
@@ -5145,10 +5145,10 @@
         <v>45168</v>
       </c>
       <c r="B112">
-        <v>2.547354670150215</v>
+        <v>0.02547354670150215</v>
       </c>
       <c r="C112">
-        <v>-0.7339279078409477</v>
+        <v>-0.007339279078409477</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -5159,10 +5159,10 @@
         <v>45167</v>
       </c>
       <c r="B113">
-        <v>1.5923566878981</v>
+        <v>0.015923566878981</v>
       </c>
       <c r="C113">
-        <v>1.095448297060297</v>
+        <v>0.01095448297060297</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>1.108454120876745</v>
+        <v>0.01108454120876745</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -5187,10 +5187,10 @@
         <v>45163</v>
       </c>
       <c r="B115">
-        <v>-0.5642633228840066</v>
+        <v>-0.005642633228840066</v>
       </c>
       <c r="C115">
-        <v>-1.016013535453664</v>
+        <v>-0.01016013535453664</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -5201,10 +5201,10 @@
         <v>45162</v>
       </c>
       <c r="B116">
-        <v>1.702395964691039</v>
+        <v>0.01702395964691039</v>
       </c>
       <c r="C116">
-        <v>-0.9387565073856186</v>
+        <v>-0.009387565073856186</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
@@ -5215,10 +5215,10 @@
         <v>45161</v>
       </c>
       <c r="B117">
-        <v>3.09981401115933</v>
+        <v>0.0309981401115933</v>
       </c>
       <c r="C117">
-        <v>1.703743241847167</v>
+        <v>0.01703743241847167</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -5229,10 +5229,10 @@
         <v>45160</v>
       </c>
       <c r="B118">
-        <v>-1.322910402886346</v>
+        <v>-0.01322910402886346</v>
       </c>
       <c r="C118">
-        <v>1.50923279937778</v>
+        <v>0.0150923279937778</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -5243,10 +5243,10 @@
         <v>45159</v>
       </c>
       <c r="B119">
-        <v>-0.4265691651432091</v>
+        <v>-0.004265691651432091</v>
       </c>
       <c r="C119">
-        <v>-0.8491538788136133</v>
+        <v>-0.008491538788136133</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -5257,10 +5257,10 @@
         <v>45156</v>
       </c>
       <c r="B120">
-        <v>1.468788249693986</v>
+        <v>0.01468788249693986</v>
       </c>
       <c r="C120">
-        <v>0.371362474126391</v>
+        <v>0.00371362474126391</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -5271,10 +5271,10 @@
         <v>45155</v>
       </c>
       <c r="B121">
-        <v>-1.447527141133886</v>
+        <v>-0.01447527141133886</v>
       </c>
       <c r="C121">
-        <v>-0.5277181811890075</v>
+        <v>-0.005277181811890075</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -5285,10 +5285,10 @@
         <v>45154</v>
       </c>
       <c r="B122">
-        <v>2.264381884944933</v>
+        <v>0.02264381884944933</v>
       </c>
       <c r="C122">
-        <v>-0.498403215948906</v>
+        <v>-0.00498403215948906</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -5299,10 +5299,10 @@
         <v>45153</v>
       </c>
       <c r="B123">
-        <v>-0.2992220227408748</v>
+        <v>-0.002992220227408748</v>
       </c>
       <c r="C123">
-        <v>-0.5470422052906376</v>
+        <v>-0.005470422052906376</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -5313,10 +5313,10 @@
         <v>45152</v>
       </c>
       <c r="B124">
-        <v>0.7202881152461149</v>
+        <v>0.007202881152461149</v>
       </c>
       <c r="C124">
-        <v>-1.062973785626564</v>
+        <v>-0.01062973785626564</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -5327,10 +5327,10 @@
         <v>45149</v>
       </c>
       <c r="B125">
-        <v>5.363528009535146</v>
+        <v>0.05363528009535146</v>
       </c>
       <c r="C125">
-        <v>-0.2408111533586776</v>
+        <v>-0.002408111533586776</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -5341,10 +5341,10 @@
         <v>45148</v>
       </c>
       <c r="B126">
-        <v>1.13122171945701</v>
+        <v>0.0113122171945701</v>
       </c>
       <c r="C126">
-        <v>-0.04982729353343318</v>
+        <v>-0.0004982729353343318</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
@@ -5355,10 +5355,10 @@
         <v>45147</v>
       </c>
       <c r="B127">
-        <v>-2.237136465324374</v>
+        <v>-0.02237136465324374</v>
       </c>
       <c r="C127">
-        <v>-0.5718364262322639</v>
+        <v>-0.005718364262322639</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
@@ -5369,10 +5369,10 @@
         <v>45146</v>
       </c>
       <c r="B128">
-        <v>4.63386727688786</v>
+        <v>0.0463386727688786</v>
       </c>
       <c r="C128">
-        <v>-0.2429217624392743</v>
+        <v>-0.002429217624392743</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -5383,10 +5383,10 @@
         <v>45145</v>
       </c>
       <c r="B129">
-        <v>-0.7654455986878084</v>
+        <v>-0.007654455986878084</v>
       </c>
       <c r="C129">
-        <v>-0.1071058004485037</v>
+        <v>-0.001071058004485037</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
@@ -5397,10 +5397,10 @@
         <v>45142</v>
       </c>
       <c r="B130">
-        <v>3.25068870523415</v>
+        <v>0.0325068870523415</v>
       </c>
       <c r="C130">
-        <v>-0.893967790622463</v>
+        <v>-0.00893967790622463</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -5411,10 +5411,10 @@
         <v>45141</v>
       </c>
       <c r="B131">
-        <v>-5.442902881536815</v>
+        <v>-0.05442902881536815</v>
       </c>
       <c r="C131">
-        <v>-0.2258830538064971</v>
+        <v>-0.002258830538064971</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -5425,10 +5425,10 @@
         <v>45140</v>
       </c>
       <c r="B132">
-        <v>2.426636568848761</v>
+        <v>0.02426636568848761</v>
       </c>
       <c r="C132">
-        <v>-0.3208300343098491</v>
+        <v>-0.003208300343098491</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
@@ -5439,10 +5439,10 @@
         <v>45139</v>
       </c>
       <c r="B133">
-        <v>-1.873278236914599</v>
+        <v>-0.01873278236914599</v>
       </c>
       <c r="C133">
-        <v>-0.5699384138490915</v>
+        <v>-0.005699384138490915</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
@@ -5453,10 +5453,10 @@
         <v>45138</v>
       </c>
       <c r="B134">
-        <v>0.5614823133071489</v>
+        <v>0.005614823133071489</v>
       </c>
       <c r="C134">
-        <v>1.461056520255943</v>
+        <v>0.01461056520255943</v>
       </c>
       <c r="D134" t="s">
         <v>10</v>
@@ -5467,10 +5467,10 @@
         <v>45135</v>
       </c>
       <c r="B135">
-        <v>-0.6141820212171911</v>
+        <v>-0.006141820212171911</v>
       </c>
       <c r="C135">
-        <v>0.1641803483623638</v>
+        <v>0.001641803483623638</v>
       </c>
       <c r="D135" t="s">
         <v>10</v>
@@ -5481,10 +5481,10 @@
         <v>45134</v>
       </c>
       <c r="B136">
-        <v>-0.05617977528090679</v>
+        <v>-0.0005617977528090679</v>
       </c>
       <c r="C136">
-        <v>-2.09693211488251</v>
+        <v>-0.0209693211488251</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
@@ -5495,10 +5495,10 @@
         <v>45133</v>
       </c>
       <c r="B137">
-        <v>2.023608768971319</v>
+        <v>0.02023608768971319</v>
       </c>
       <c r="C137">
-        <v>0.4524293488951558</v>
+        <v>0.004524293488951558</v>
       </c>
       <c r="D137" t="s">
         <v>10</v>
@@ -5509,10 +5509,10 @@
         <v>45132</v>
       </c>
       <c r="B138">
-        <v>-1.928374655647369</v>
+        <v>-0.01928374655647369</v>
       </c>
       <c r="C138">
-        <v>0.5488618944800683</v>
+        <v>0.005488618944800683</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -5523,10 +5523,10 @@
         <v>45131</v>
       </c>
       <c r="B139">
-        <v>1.179775280898876</v>
+        <v>0.01179775280898876</v>
       </c>
       <c r="C139">
-        <v>0.9358077476563142</v>
+        <v>0.009358077476563142</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
@@ -5537,10 +5537,10 @@
         <v>45128</v>
       </c>
       <c r="B140">
-        <v>-2.94280955024987</v>
+        <v>-0.0294280955024987</v>
       </c>
       <c r="C140">
-        <v>1.807203407772495</v>
+        <v>0.01807203407772495</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
@@ -5551,10 +5551,10 @@
         <v>45127</v>
       </c>
       <c r="B141">
-        <v>-2.288329519450816</v>
+        <v>-0.02288329519450816</v>
       </c>
       <c r="C141">
-        <v>0.4517149857084624</v>
+        <v>0.004517149857084624</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
@@ -5565,10 +5565,10 @@
         <v>45126</v>
       </c>
       <c r="B142">
-        <v>-0.5854800936768045</v>
+        <v>-0.005854800936768045</v>
       </c>
       <c r="C142">
-        <v>-0.2452457124430429</v>
+        <v>-0.002452457124430429</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
@@ -5579,10 +5579,10 @@
         <v>45125</v>
       </c>
       <c r="B143">
-        <v>1.884570082449932</v>
+        <v>0.01884570082449932</v>
       </c>
       <c r="C143">
-        <v>-0.3197455569747709</v>
+        <v>-0.003197455569747709</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
@@ -5593,10 +5593,10 @@
         <v>45124</v>
       </c>
       <c r="B144">
-        <v>-0.8670520231213952</v>
+        <v>-0.008670520231213952</v>
       </c>
       <c r="C144">
-        <v>0.4315654441810812</v>
+        <v>0.004315654441810812</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
@@ -5607,10 +5607,10 @@
         <v>45121</v>
       </c>
       <c r="B145">
-        <v>-0.6997084548104771</v>
+        <v>-0.006997084548104771</v>
       </c>
       <c r="C145">
-        <v>-1.302153206332168</v>
+        <v>-0.01302153206332168</v>
       </c>
       <c r="D145" t="s">
         <v>10</v>
@@ -5621,10 +5621,10 @@
         <v>45120</v>
       </c>
       <c r="B146">
-        <v>3.46447445684086</v>
+        <v>0.0346447445684086</v>
       </c>
       <c r="C146">
-        <v>1.358081348902829</v>
+        <v>0.01358081348902829</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
@@ -5635,10 +5635,10 @@
         <v>45119</v>
       </c>
       <c r="B147">
-        <v>0.6810442678774065</v>
+        <v>0.006810442678774065</v>
       </c>
       <c r="C147">
-        <v>0.3804811465620173</v>
+        <v>0.003804811465620173</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
@@ -5649,10 +5649,10 @@
         <v>45118</v>
       </c>
       <c r="B148">
-        <v>1.521984216459993</v>
+        <v>0.01521984216459993</v>
       </c>
       <c r="C148">
-        <v>-0.6121653015889184</v>
+        <v>-0.006121653015889184</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
@@ -5663,10 +5663,10 @@
         <v>45117</v>
       </c>
       <c r="B149">
-        <v>1.277068295391426</v>
+        <v>0.01277068295391426</v>
       </c>
       <c r="C149">
-        <v>-0.8040505307069901</v>
+        <v>-0.008040505307069901</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
@@ -5677,10 +5677,10 @@
         <v>45114</v>
       </c>
       <c r="B150">
-        <v>6.907894736842124</v>
+        <v>0.06907894736842124</v>
       </c>
       <c r="C150">
-        <v>1.253555430654196</v>
+        <v>0.01253555430654196</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
@@ -5691,10 +5691,10 @@
         <v>45113</v>
       </c>
       <c r="B151">
-        <v>-3.025641025641024</v>
+        <v>-0.03025641025641024</v>
       </c>
       <c r="C151">
-        <v>-1.775840868597811</v>
+        <v>-0.01775840868597811</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
@@ -5705,10 +5705,10 @@
         <v>45112</v>
       </c>
       <c r="B152">
-        <v>3.278688524590168</v>
+        <v>0.03278688524590168</v>
       </c>
       <c r="C152">
-        <v>0.3972253014881355</v>
+        <v>0.003972253014881355</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
@@ -5719,10 +5719,10 @@
         <v>45111</v>
       </c>
       <c r="B153">
-        <v>-0.8192524321556593</v>
+        <v>-0.008192524321556593</v>
       </c>
       <c r="C153">
-        <v>-0.4988593918427764</v>
+        <v>-0.004988593918427764</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
@@ -5733,10 +5733,10 @@
         <v>45110</v>
       </c>
       <c r="B154">
-        <v>0.05162622612286949</v>
+        <v>0.0005162622612286949</v>
       </c>
       <c r="C154">
-        <v>1.343077561458927</v>
+        <v>0.01343077561458927</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -5747,10 +5747,10 @@
         <v>45107</v>
       </c>
       <c r="B155">
-        <v>-1.444788441692457</v>
+        <v>-0.01444788441692457</v>
       </c>
       <c r="C155">
-        <v>-0.2500359004248942</v>
+        <v>-0.002500359004248942</v>
       </c>
       <c r="D155" t="s">
         <v>11</v>
@@ -5761,10 +5761,10 @@
         <v>45106</v>
       </c>
       <c r="B156">
-        <v>6.963350785340294</v>
+        <v>0.06963350785340294</v>
       </c>
       <c r="C156">
-        <v>1.458677933853836</v>
+        <v>0.01458677933853836</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
@@ -5775,10 +5775,10 @@
         <v>45105</v>
       </c>
       <c r="B157">
-        <v>-2.153695545766032</v>
+        <v>-0.02153695545766032</v>
       </c>
       <c r="C157">
-        <v>-0.7164555023272068</v>
+        <v>-0.007164555023272068</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
@@ -5789,10 +5789,10 @@
         <v>45104</v>
       </c>
       <c r="B158">
-        <v>-0.1000500250124992</v>
+        <v>-0.001000500250124992</v>
       </c>
       <c r="C158">
-        <v>-0.6089155383405376</v>
+        <v>-0.006089155383405376</v>
       </c>
       <c r="D158" t="s">
         <v>11</v>
@@ -5803,10 +5803,10 @@
         <v>45103</v>
       </c>
       <c r="B159">
-        <v>2.60390585878818</v>
+        <v>0.0260390585878818</v>
       </c>
       <c r="C159">
-        <v>-0.6169259604797528</v>
+        <v>-0.006169259604797528</v>
       </c>
       <c r="D159" t="s">
         <v>11</v>
@@ -5817,10 +5817,10 @@
         <v>45100</v>
       </c>
       <c r="B160">
-        <v>3.123474865788189</v>
+        <v>0.03123474865788189</v>
       </c>
       <c r="C160">
-        <v>0.03615450586038627</v>
+        <v>0.0003615450586038627</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -5831,10 +5831,10 @@
         <v>45099</v>
       </c>
       <c r="B161">
-        <v>-4.070042593469003</v>
+        <v>-0.04070042593469003</v>
       </c>
       <c r="C161">
-        <v>-1.234014283341633</v>
+        <v>-0.01234014283341633</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
@@ -5845,10 +5845,10 @@
         <v>45098</v>
       </c>
       <c r="B162">
-        <v>1.677355698075966</v>
+        <v>0.01677355698075966</v>
       </c>
       <c r="C162">
-        <v>0.6671013693133387</v>
+        <v>0.006671013693133387</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
@@ -5859,10 +5859,10 @@
         <v>45097</v>
       </c>
       <c r="B163">
-        <v>-0.8248423095584601</v>
+        <v>-0.008248423095584601</v>
       </c>
       <c r="C163">
-        <v>-0.1968996646031118</v>
+        <v>-0.001968996646031118</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
@@ -5873,10 +5873,10 @@
         <v>45096</v>
       </c>
       <c r="B164">
-        <v>-3.718199608610573</v>
+        <v>-0.03718199608610573</v>
       </c>
       <c r="C164">
-        <v>0.9262533892453462</v>
+        <v>0.009262533892453462</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
@@ -5887,10 +5887,10 @@
         <v>45093</v>
       </c>
       <c r="B165">
-        <v>-2.184959349593496</v>
+        <v>-0.02184959349593496</v>
       </c>
       <c r="C165">
-        <v>-0.3883544006508921</v>
+        <v>-0.003883544006508921</v>
       </c>
       <c r="D165" t="s">
         <v>11</v>
@@ -5901,10 +5901,10 @@
         <v>45092</v>
       </c>
       <c r="B166">
-        <v>3.636363636363638</v>
+        <v>0.03636363636363638</v>
       </c>
       <c r="C166">
-        <v>0.1276570727897219</v>
+        <v>0.001276570727897219</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
@@ -5915,10 +5915,10 @@
         <v>45091</v>
       </c>
       <c r="B167">
-        <v>2.005012531328321</v>
+        <v>0.02005012531328321</v>
       </c>
       <c r="C167">
-        <v>1.992410679869461</v>
+        <v>0.01992410679869461</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -5929,10 +5929,10 @@
         <v>45090</v>
       </c>
       <c r="B168">
-        <v>0.04914004914002845</v>
+        <v>0.0004914004914002845</v>
       </c>
       <c r="C168">
-        <v>-0.5053862412217947</v>
+        <v>-0.005053862412217947</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
@@ -5943,10 +5943,10 @@
         <v>45089</v>
       </c>
       <c r="B169">
-        <v>6.139489194499026</v>
+        <v>0.06139489194499026</v>
       </c>
       <c r="C169">
-        <v>0.270896179252933</v>
+        <v>0.00270896179252933</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
@@ -5957,10 +5957,10 @@
         <v>45086</v>
       </c>
       <c r="B170">
-        <v>-4.349838037945386</v>
+        <v>-0.04349838037945386</v>
       </c>
       <c r="C170">
-        <v>1.325678858409529</v>
+        <v>0.01325678858409529</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
@@ -5971,10 +5971,10 @@
         <v>45084</v>
       </c>
       <c r="B171">
-        <v>-0.8224479922593231</v>
+        <v>-0.008224479922593231</v>
       </c>
       <c r="C171">
-        <v>0.7660762586161773</v>
+        <v>0.007660762586161773</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
@@ -5985,10 +5985,10 @@
         <v>45083</v>
       </c>
       <c r="B172">
-        <v>-2.439024390243905</v>
+        <v>-0.02439024390243905</v>
       </c>
       <c r="C172">
-        <v>1.69837438773337</v>
+        <v>0.0169837438773337</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
@@ -5999,10 +5999,10 @@
         <v>45082</v>
       </c>
       <c r="B173">
-        <v>-2.849999999999997</v>
+        <v>-0.02849999999999997</v>
       </c>
       <c r="C173">
-        <v>0.1226034577728852</v>
+        <v>0.001226034577728852</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
@@ -6013,10 +6013,10 @@
         <v>45079</v>
       </c>
       <c r="B174">
-        <v>-0.257334019557387</v>
+        <v>-0.00257334019557387</v>
       </c>
       <c r="C174">
-        <v>1.802559580337348</v>
+        <v>0.01802559580337348</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
@@ -6027,10 +6027,10 @@
         <v>45078</v>
       </c>
       <c r="B175">
-        <v>0.4643962848297267</v>
+        <v>0.004643962848297267</v>
       </c>
       <c r="C175">
-        <v>2.058429870309686</v>
+        <v>0.02058429870309686</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
@@ -6041,10 +6041,10 @@
         <v>45077</v>
       </c>
       <c r="B176">
-        <v>-5.392912172573173</v>
+        <v>-0.05392912172573172</v>
       </c>
       <c r="C176">
-        <v>-0.5799921077023318</v>
+        <v>-0.005799921077023318</v>
       </c>
       <c r="D176" t="s">
         <v>12</v>
@@ -6055,10 +6055,10 @@
         <v>45076</v>
       </c>
       <c r="B177">
-        <v>-0.6514657980456029</v>
+        <v>-0.006514657980456029</v>
       </c>
       <c r="C177">
-        <v>-1.238070205650166</v>
+        <v>-0.01238070205650166</v>
       </c>
       <c r="D177" t="s">
         <v>12</v>
@@ -6069,10 +6069,10 @@
         <v>45075</v>
       </c>
       <c r="B178">
-        <v>1.91256830601092</v>
+        <v>0.0191256830601092</v>
       </c>
       <c r="C178">
-        <v>-0.5166537428092255</v>
+        <v>-0.005166537428092255</v>
       </c>
       <c r="D178" t="s">
         <v>12</v>
@@ -6083,10 +6083,10 @@
         <v>45072</v>
       </c>
       <c r="B179">
-        <v>1.76943699731904</v>
+        <v>0.0176943699731904</v>
       </c>
       <c r="C179">
-        <v>0.7741654097079609</v>
+        <v>0.007741654097079609</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
@@ -6097,10 +6097,10 @@
         <v>45071</v>
       </c>
       <c r="B180">
-        <v>-2.687038988408863</v>
+        <v>-0.02687038988408863</v>
       </c>
       <c r="C180">
-        <v>1.15257352941176</v>
+        <v>0.0115257352941176</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
@@ -6111,10 +6111,10 @@
         <v>45070</v>
       </c>
       <c r="B181">
-        <v>-5.684894423389264</v>
+        <v>-0.05684894423389264</v>
       </c>
       <c r="C181">
-        <v>-1.02702653530915</v>
+        <v>-0.0102702653530915</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
@@ -6125,10 +6125,10 @@
         <v>45069</v>
       </c>
       <c r="B182">
-        <v>1.205510907003426</v>
+        <v>0.01205510907003426</v>
       </c>
       <c r="C182">
-        <v>-0.257682850480434</v>
+        <v>-0.00257682850480434</v>
       </c>
       <c r="D182" t="s">
         <v>12</v>
@@ -6139,10 +6139,10 @@
         <v>45068</v>
       </c>
       <c r="B183">
-        <v>1.701644923425993</v>
+        <v>0.01701644923425993</v>
       </c>
       <c r="C183">
-        <v>-0.4803828615287387</v>
+        <v>-0.004803828615287387</v>
       </c>
       <c r="D183" t="s">
         <v>12</v>
@@ -6153,10 +6153,10 @@
         <v>45065</v>
       </c>
       <c r="B184">
-        <v>2.50976017847182</v>
+        <v>0.0250976017847182</v>
       </c>
       <c r="C184">
-        <v>0.5785229047843954</v>
+        <v>0.005785229047843954</v>
       </c>
       <c r="D184" t="s">
         <v>12</v>
@@ -6167,10 +6167,10 @@
         <v>45064</v>
       </c>
       <c r="B185">
-        <v>-2.883569096844385</v>
+        <v>-0.02883569096844385</v>
       </c>
       <c r="C185">
-        <v>0.5919970765576377</v>
+        <v>0.005919970765576377</v>
       </c>
       <c r="D185" t="s">
         <v>12</v>
@@ -6181,10 +6181,10 @@
         <v>45063</v>
       </c>
       <c r="B186">
-        <v>-1.232492997198897</v>
+        <v>-0.01232492997198897</v>
       </c>
       <c r="C186">
-        <v>1.170120339390346</v>
+        <v>0.01170120339390346</v>
       </c>
       <c r="D186" t="s">
         <v>12</v>
@@ -6195,10 +6195,10 @@
         <v>45062</v>
       </c>
       <c r="B187">
-        <v>-8.791832104367558</v>
+        <v>-0.08791832104367558</v>
       </c>
       <c r="C187">
-        <v>-0.7658512872721901</v>
+        <v>-0.007658512872721901</v>
       </c>
       <c r="D187" t="s">
         <v>12</v>
@@ -6209,10 +6209,10 @@
         <v>45061</v>
       </c>
       <c r="B188">
-        <v>2.114427860696533</v>
+        <v>0.02114427860696533</v>
       </c>
       <c r="C188">
-        <v>0.5209101637409619</v>
+        <v>0.005209101637409619</v>
       </c>
       <c r="D188" t="s">
         <v>12</v>
@@ -6223,10 +6223,10 @@
         <v>45058</v>
       </c>
       <c r="B189">
-        <v>-2.984165651644344</v>
+        <v>-0.02984165651644344</v>
       </c>
       <c r="C189">
-        <v>0.1921371563700758</v>
+        <v>0.001921371563700758</v>
       </c>
       <c r="D189" t="s">
         <v>12</v>
@@ -6237,10 +6237,10 @@
         <v>45057</v>
       </c>
       <c r="B190">
-        <v>0.5649717514124353</v>
+        <v>0.005649717514124353</v>
       </c>
       <c r="C190">
-        <v>0.7519916610825739</v>
+        <v>0.007519916610825739</v>
       </c>
       <c r="D190" t="s">
         <v>12</v>
@@ -6251,10 +6251,10 @@
         <v>45056</v>
       </c>
       <c r="B191">
-        <v>3.433208489388262</v>
+        <v>0.03433208489388262</v>
       </c>
       <c r="C191">
-        <v>0.3118173161304805</v>
+        <v>0.003118173161304805</v>
       </c>
       <c r="D191" t="s">
         <v>12</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>1.010920201429633</v>
+        <v>0.01010920201429633</v>
       </c>
       <c r="D192" t="s">
         <v>12</v>
@@ -6279,10 +6279,10 @@
         <v>45054</v>
       </c>
       <c r="B193">
-        <v>-3.983101991550997</v>
+        <v>-0.03983101991550997</v>
       </c>
       <c r="C193">
-        <v>0.8502301517860467</v>
+        <v>0.008502301517860467</v>
       </c>
       <c r="D193" t="s">
         <v>12</v>
@@ -6293,10 +6293,10 @@
         <v>45051</v>
       </c>
       <c r="B194">
-        <v>-6.213364595545123</v>
+        <v>-0.06213364595545123</v>
       </c>
       <c r="C194">
-        <v>2.910720927046029</v>
+        <v>0.02910720927046029</v>
       </c>
       <c r="D194" t="s">
         <v>12</v>
@@ -6307,10 +6307,10 @@
         <v>45050</v>
       </c>
       <c r="B195">
-        <v>-8.499999999999996</v>
+        <v>-0.08499999999999996</v>
       </c>
       <c r="C195">
-        <v>0.3703449021090988</v>
+        <v>0.003703449021090988</v>
       </c>
       <c r="D195" t="s">
         <v>12</v>
@@ -6321,10 +6321,10 @@
         <v>45049</v>
       </c>
       <c r="B196">
-        <v>-5.737704918032782</v>
+        <v>-0.05737704918032782</v>
       </c>
       <c r="C196">
-        <v>-0.1275422606375143</v>
+        <v>-0.001275422606375143</v>
       </c>
       <c r="D196" t="s">
         <v>12</v>
@@ -6335,10 +6335,10 @@
         <v>45048</v>
       </c>
       <c r="B197">
-        <v>2.391304347826084</v>
+        <v>0.02391304347826084</v>
       </c>
       <c r="C197">
-        <v>-2.398690056687602</v>
+        <v>-0.02398690056687602</v>
       </c>
       <c r="D197" t="s">
         <v>12</v>
@@ -6349,10 +6349,10 @@
         <v>45044</v>
       </c>
       <c r="B198">
-        <v>6.157112526539277</v>
+        <v>0.06157112526539277</v>
       </c>
       <c r="C198">
-        <v>1.466144593531093</v>
+        <v>0.01466144593531093</v>
       </c>
       <c r="D198" t="s">
         <v>13</v>
@@ -6363,10 +6363,10 @@
         <v>45043</v>
       </c>
       <c r="B199">
-        <v>-5.266666666666664</v>
+        <v>-0.05266666666666664</v>
       </c>
       <c r="C199">
-        <v>0.5971929001485687</v>
+        <v>0.005971929001485687</v>
       </c>
       <c r="D199" t="s">
         <v>13</v>
@@ -6377,10 +6377,10 @@
         <v>45042</v>
       </c>
       <c r="B200">
-        <v>-0.1407459535538447</v>
+        <v>-0.001407459535538447</v>
       </c>
       <c r="C200">
-        <v>-0.8796744816895963</v>
+        <v>-0.008796744816895963</v>
       </c>
       <c r="D200" t="s">
         <v>13</v>
@@ -6391,10 +6391,10 @@
         <v>45041</v>
       </c>
       <c r="B201">
-        <v>-1.409443269908384</v>
+        <v>-0.01409443269908384</v>
       </c>
       <c r="C201">
-        <v>-0.6993948839312369</v>
+        <v>-0.006993948839312369</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
@@ -6405,10 +6405,10 @@
         <v>45040</v>
       </c>
       <c r="B202">
-        <v>2.215868477483918</v>
+        <v>0.02215868477483918</v>
       </c>
       <c r="C202">
-        <v>-0.4024260542125346</v>
+        <v>-0.004024260542125346</v>
       </c>
       <c r="D202" t="s">
         <v>13</v>
@@ -6419,10 +6419,10 @@
         <v>45036</v>
       </c>
       <c r="B203">
-        <v>0.5594405594405494</v>
+        <v>0.005594405594405494</v>
       </c>
       <c r="C203">
-        <v>0.4369039484953818</v>
+        <v>0.004369039484953818</v>
       </c>
       <c r="D203" t="s">
         <v>13</v>
@@ -6433,10 +6433,10 @@
         <v>45035</v>
       </c>
       <c r="B204">
-        <v>-0.06954102920724292</v>
+        <v>-0.0006954102920724292</v>
       </c>
       <c r="C204">
-        <v>-2.119382459048824</v>
+        <v>-0.02119382459048824</v>
       </c>
       <c r="D204" t="s">
         <v>13</v>
@@ -6447,10 +6447,10 @@
         <v>45034</v>
       </c>
       <c r="B205">
-        <v>5.775922059846894</v>
+        <v>0.05775922059846894</v>
       </c>
       <c r="C205">
-        <v>0.1386583157259258</v>
+        <v>0.001386583157259258</v>
       </c>
       <c r="D205" t="s">
         <v>13</v>
@@ -6461,10 +6461,10 @@
         <v>45033</v>
       </c>
       <c r="B206">
-        <v>4.276315789473695</v>
+        <v>0.04276315789473695</v>
       </c>
       <c r="C206">
-        <v>-0.2474618692309916</v>
+        <v>-0.002474618692309916</v>
       </c>
       <c r="D206" t="s">
         <v>13</v>
@@ -6475,10 +6475,10 @@
         <v>45030</v>
       </c>
       <c r="B207">
-        <v>-2.586750788643533</v>
+        <v>-0.02586750788643533</v>
       </c>
       <c r="C207">
-        <v>-0.1681414266659131</v>
+        <v>-0.001681414266659131</v>
       </c>
       <c r="D207" t="s">
         <v>13</v>
@@ -6489,10 +6489,10 @@
         <v>45029</v>
       </c>
       <c r="B208">
-        <v>3.367875647668406</v>
+        <v>0.03367875647668406</v>
       </c>
       <c r="C208">
-        <v>-0.4041538029750158</v>
+        <v>-0.004041538029750158</v>
       </c>
       <c r="D208" t="s">
         <v>13</v>
@@ -6503,10 +6503,10 @@
         <v>45028</v>
       </c>
       <c r="B209">
-        <v>2.005012531328321</v>
+        <v>0.02005012531328321</v>
       </c>
       <c r="C209">
-        <v>0.636450938670996</v>
+        <v>0.00636450938670996</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
@@ -6517,10 +6517,10 @@
         <v>45027</v>
       </c>
       <c r="B210">
-        <v>-1.719901719901729</v>
+        <v>-0.01719901719901729</v>
       </c>
       <c r="C210">
-        <v>4.287804255402716</v>
+        <v>0.04287804255402716</v>
       </c>
       <c r="D210" t="s">
         <v>13</v>
@@ -6531,10 +6531,10 @@
         <v>45026</v>
       </c>
       <c r="B211">
-        <v>-8.499999999999996</v>
+        <v>-0.08499999999999996</v>
       </c>
       <c r="C211">
-        <v>1.016643192953914</v>
+        <v>0.01016643192953914</v>
       </c>
       <c r="D211" t="s">
         <v>13</v>
@@ -6545,10 +6545,10 @@
         <v>45022</v>
       </c>
       <c r="B212">
-        <v>1.639344262295084</v>
+        <v>0.01639344262295084</v>
       </c>
       <c r="C212">
-        <v>-0.1544890966349133</v>
+        <v>-0.001544890966349133</v>
       </c>
       <c r="D212" t="s">
         <v>13</v>
@@ -6559,10 +6559,10 @@
         <v>45021</v>
       </c>
       <c r="B213">
-        <v>-4.704301075268824</v>
+        <v>-0.04704301075268824</v>
       </c>
       <c r="C213">
-        <v>-0.8746527402840876</v>
+        <v>-0.008746527402840876</v>
       </c>
       <c r="D213" t="s">
         <v>13</v>
@@ -6573,10 +6573,10 @@
         <v>45020</v>
       </c>
       <c r="B214">
-        <v>2.750352609308893</v>
+        <v>0.02750352609308893</v>
       </c>
       <c r="C214">
-        <v>0.3576143282170596</v>
+        <v>0.003576143282170596</v>
       </c>
       <c r="D214" t="s">
         <v>13</v>
@@ -6587,10 +6587,10 @@
         <v>45019</v>
       </c>
       <c r="B215">
-        <v>0.1372683596430946</v>
+        <v>0.001372683596430946</v>
       </c>
       <c r="C215">
-        <v>-0.3690543962623472</v>
+        <v>-0.003690543962623472</v>
       </c>
       <c r="D215" t="s">
         <v>13</v>
@@ -6601,10 +6601,10 @@
         <v>45016</v>
       </c>
       <c r="B216">
-        <v>7.539410555174775</v>
+        <v>0.07539410555174775</v>
       </c>
       <c r="C216">
-        <v>-1.765448882975129</v>
+        <v>-0.01765448882975129</v>
       </c>
       <c r="D216" t="s">
         <v>14</v>
@@ -6615,10 +6615,10 @@
         <v>45015</v>
       </c>
       <c r="B217">
-        <v>6.437221159974515</v>
+        <v>0.06437221159974515</v>
       </c>
       <c r="C217">
-        <v>1.886180778639002</v>
+        <v>0.01886180778639002</v>
       </c>
       <c r="D217" t="s">
         <v>14</v>
@@ -6629,10 +6629,10 @@
         <v>45014</v>
       </c>
       <c r="B218">
-        <v>-3.592814371257469</v>
+        <v>-0.03592814371257469</v>
       </c>
       <c r="C218">
-        <v>0.6008795770124031</v>
+        <v>0.006008795770124031</v>
       </c>
       <c r="D218" t="s">
         <v>14</v>
@@ -6643,10 +6643,10 @@
         <v>45013</v>
       </c>
       <c r="B219">
-        <v>5.093167701863366</v>
+        <v>0.05093167701863366</v>
       </c>
       <c r="C219">
-        <v>1.520016052974826</v>
+        <v>0.01520016052974826</v>
       </c>
       <c r="D219" t="s">
         <v>14</v>
@@ -6657,10 +6657,10 @@
         <v>45012</v>
       </c>
       <c r="B220">
-        <v>-3.309692671394815</v>
+        <v>-0.03309692671394815</v>
       </c>
       <c r="C220">
-        <v>0.8509647977820167</v>
+        <v>0.008509647977820167</v>
       </c>
       <c r="D220" t="s">
         <v>14</v>
@@ -6671,10 +6671,10 @@
         <v>45009</v>
       </c>
       <c r="B221">
-        <v>-1.650366748166254</v>
+        <v>-0.01650366748166254</v>
       </c>
       <c r="C221">
-        <v>0.9221248697996343</v>
+        <v>0.009221248697996343</v>
       </c>
       <c r="D221" t="s">
         <v>14</v>
@@ -6685,10 +6685,10 @@
         <v>45008</v>
       </c>
       <c r="B222">
-        <v>-0.9944064636420169</v>
+        <v>-0.009944064636420169</v>
       </c>
       <c r="C222">
-        <v>-2.289939234292215</v>
+        <v>-0.02289939234292215</v>
       </c>
       <c r="D222" t="s">
         <v>14</v>
@@ -6699,10 +6699,10 @@
         <v>45007</v>
       </c>
       <c r="B223">
-        <v>2.636534839924676</v>
+        <v>0.02636534839924676</v>
       </c>
       <c r="C223">
-        <v>-0.7693221647953385</v>
+        <v>-0.007693221647953385</v>
       </c>
       <c r="D223" t="s">
         <v>14</v>
@@ -6713,10 +6713,10 @@
         <v>45006</v>
       </c>
       <c r="B224">
-        <v>0.8562691131498212</v>
+        <v>0.008562691131498212</v>
       </c>
       <c r="C224">
-        <v>0.07431408103206749</v>
+        <v>0.0007431408103206749</v>
       </c>
       <c r="D224" t="s">
         <v>14</v>
@@ -6727,10 +6727,10 @@
         <v>45005</v>
       </c>
       <c r="B225">
-        <v>-0.7883565797452974</v>
+        <v>-0.007883565797452974</v>
       </c>
       <c r="C225">
-        <v>-1.038418544449016</v>
+        <v>-0.01038418544449016</v>
       </c>
       <c r="D225" t="s">
         <v>14</v>
@@ -6741,10 +6741,10 @@
         <v>45002</v>
       </c>
       <c r="B226">
-        <v>3.484107579462115</v>
+        <v>0.03484107579462115</v>
       </c>
       <c r="C226">
-        <v>-1.404746942524293</v>
+        <v>-0.01404746942524293</v>
       </c>
       <c r="D226" t="s">
         <v>14</v>
@@ -6755,10 +6755,10 @@
         <v>45001</v>
       </c>
       <c r="B227">
-        <v>3.544004725339645</v>
+        <v>0.03544004725339645</v>
       </c>
       <c r="C227">
-        <v>0.7401996591185789</v>
+        <v>0.007401996591185789</v>
       </c>
       <c r="D227" t="s">
         <v>14</v>
@@ -6769,10 +6769,10 @@
         <v>45000</v>
       </c>
       <c r="B228">
-        <v>-0.8556759840273931</v>
+        <v>-0.008556759840273931</v>
       </c>
       <c r="C228">
-        <v>-0.2496793999922309</v>
+        <v>-0.002496793999922309</v>
       </c>
       <c r="D228" t="s">
         <v>14</v>
@@ -6783,10 +6783,10 @@
         <v>44999</v>
       </c>
       <c r="B229">
-        <v>-0.4027617951668616</v>
+        <v>-0.004027617951668616</v>
       </c>
       <c r="C229">
-        <v>-0.1832798363088028</v>
+        <v>-0.001832798363088028</v>
       </c>
       <c r="D229" t="s">
         <v>14</v>
@@ -6797,10 +6797,10 @@
         <v>44998</v>
       </c>
       <c r="B230">
-        <v>4.043905257076852</v>
+        <v>0.04043905257076852</v>
       </c>
       <c r="C230">
-        <v>-0.4796463934837569</v>
+        <v>-0.004796463934837569</v>
       </c>
       <c r="D230" t="s">
         <v>14</v>
@@ -6811,10 +6811,10 @@
         <v>44995</v>
       </c>
       <c r="B231">
-        <v>-1.499167129372592</v>
+        <v>-0.01499167129372592</v>
       </c>
       <c r="C231">
-        <v>-1.382874437285264</v>
+        <v>-0.01382874437285264</v>
       </c>
       <c r="D231" t="s">
         <v>14</v>
@@ -6825,10 +6825,10 @@
         <v>44994</v>
       </c>
       <c r="B232">
-        <v>2.142051860202954</v>
+        <v>0.02142051860202954</v>
       </c>
       <c r="C232">
-        <v>-1.378824854514737</v>
+        <v>-0.01378824854514737</v>
       </c>
       <c r="D232" t="s">
         <v>14</v>
@@ -6839,10 +6839,10 @@
         <v>44993</v>
       </c>
       <c r="B233">
-        <v>1.379690949227363</v>
+        <v>0.01379690949227363</v>
       </c>
       <c r="C233">
-        <v>2.218213915646472</v>
+        <v>0.02218213915646472</v>
       </c>
       <c r="D233" t="s">
         <v>14</v>
@@ -6853,10 +6853,10 @@
         <v>44992</v>
       </c>
       <c r="B234">
-        <v>-6.967882416984217</v>
+        <v>-0.06967882416984217</v>
       </c>
       <c r="C234">
-        <v>-0.4508118433619868</v>
+        <v>-0.004508118433619868</v>
       </c>
       <c r="D234" t="s">
         <v>14</v>
@@ -6867,10 +6867,10 @@
         <v>44991</v>
       </c>
       <c r="B235">
-        <v>-0.5266237565828003</v>
+        <v>-0.005266237565828003</v>
       </c>
       <c r="C235">
-        <v>0.802957656981107</v>
+        <v>0.00802957656981107</v>
       </c>
       <c r="D235" t="s">
         <v>14</v>
@@ -6881,10 +6881,10 @@
         <v>44988</v>
       </c>
       <c r="B236">
-        <v>-2.176470588235302</v>
+        <v>-0.02176470588235302</v>
       </c>
       <c r="C236">
-        <v>0.5226177341617788</v>
+        <v>0.005226177341617788</v>
       </c>
       <c r="D236" t="s">
         <v>14</v>
@@ -6895,10 +6895,10 @@
         <v>44987</v>
       </c>
       <c r="B237">
-        <v>1.98436560432953</v>
+        <v>0.0198436560432953</v>
       </c>
       <c r="C237">
-        <v>-1.014513579537291</v>
+        <v>-0.01014513579537291</v>
       </c>
       <c r="D237" t="s">
         <v>14</v>
@@ -6909,10 +6909,10 @@
         <v>44986</v>
       </c>
       <c r="B238">
-        <v>-1.061320754716977</v>
+        <v>-0.01061320754716977</v>
       </c>
       <c r="C238">
-        <v>-0.521289978271644</v>
+        <v>-0.00521289978271644</v>
       </c>
       <c r="D238" t="s">
         <v>14</v>
@@ -6923,10 +6923,10 @@
         <v>44985</v>
       </c>
       <c r="B239">
-        <v>4.171632896305111</v>
+        <v>0.04171632896305111</v>
       </c>
       <c r="C239">
-        <v>-0.7369147960004208</v>
+        <v>-0.007369147960004208</v>
       </c>
       <c r="D239" t="s">
         <v>15</v>
@@ -6937,10 +6937,10 @@
         <v>44984</v>
       </c>
       <c r="B240">
-        <v>2.91762013729977</v>
+        <v>0.0291762013729977</v>
       </c>
       <c r="C240">
-        <v>-0.1530135161939339</v>
+        <v>-0.001530135161939339</v>
       </c>
       <c r="D240" t="s">
         <v>15</v>
@@ -6951,10 +6951,10 @@
         <v>44981</v>
       </c>
       <c r="B241">
-        <v>-0.9449694274596854</v>
+        <v>-0.009449694274596854</v>
       </c>
       <c r="C241">
-        <v>-1.714630523579652</v>
+        <v>-0.01714630523579652</v>
       </c>
       <c r="D241" t="s">
         <v>15</v>
@@ -6965,10 +6965,10 @@
         <v>44980</v>
       </c>
       <c r="B242">
-        <v>0.8978675645342271</v>
+        <v>0.008978675645342271</v>
       </c>
       <c r="C242">
-        <v>0.5300880991488732</v>
+        <v>0.005300880991488732</v>
       </c>
       <c r="D242" t="s">
         <v>15</v>
@@ -6979,10 +6979,10 @@
         <v>44979</v>
       </c>
       <c r="B243">
-        <v>-2.558398220244718</v>
+        <v>-0.02558398220244718</v>
       </c>
       <c r="C243">
-        <v>-1.967924027702805</v>
+        <v>-0.01967924027702805</v>
       </c>
       <c r="D243" t="s">
         <v>15</v>
@@ -6993,10 +6993,10 @@
         <v>44974</v>
       </c>
       <c r="B244">
-        <v>4.965753424657549</v>
+        <v>0.04965753424657549</v>
       </c>
       <c r="C244">
-        <v>-0.5477457804467512</v>
+        <v>-0.005477457804467512</v>
       </c>
       <c r="D244" t="s">
         <v>15</v>
@@ -7007,10 +7007,10 @@
         <v>44973</v>
       </c>
       <c r="B245">
-        <v>-1.250679717237635</v>
+        <v>-0.01250679717237635</v>
       </c>
       <c r="C245">
-        <v>0.4230551342263578</v>
+        <v>0.004230551342263578</v>
       </c>
       <c r="D245" t="s">
         <v>15</v>
@@ -7021,10 +7021,10 @@
         <v>44972</v>
       </c>
       <c r="B246">
-        <v>-0.770925110132159</v>
+        <v>-0.00770925110132159</v>
       </c>
       <c r="C246">
-        <v>1.656155082250432</v>
+        <v>0.01656155082250432</v>
       </c>
       <c r="D246" t="s">
         <v>15</v>
@@ -7035,10 +7035,10 @@
         <v>44971</v>
       </c>
       <c r="B247">
-        <v>-2.663706992230852</v>
+        <v>-0.02663706992230852</v>
       </c>
       <c r="C247">
-        <v>-1.090531576723075</v>
+        <v>-0.01090531576723075</v>
       </c>
       <c r="D247" t="s">
         <v>15</v>

--- a/doc/LREN3cg_1anos.xlsx
+++ b/doc/LREN3cg_1anos.xlsx
@@ -184,9 +184,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$247</c:f>
+              <c:f>Retornos!$D$2:$D$246</c:f>
               <c:strCache>
-                <c:ptCount val="246"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>02/2024</c:v>
                 </c:pt>
@@ -920,9 +920,6 @@
                   <c:v>02/2023</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>02/2023</c:v>
-                </c:pt>
-                <c:pt idx="245">
                   <c:v>02/2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -930,10 +927,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$247</c:f>
+              <c:f>Retornos!$B$2:$B$246</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="246"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>0.01610644257703076</c:v>
                 </c:pt>
@@ -1668,9 +1665,6 @@
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>-0.00770925110132159</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>-0.02663706992230852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1690,9 +1684,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$247</c:f>
+              <c:f>Retornos!$D$2:$D$246</c:f>
               <c:strCache>
-                <c:ptCount val="246"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>02/2024</c:v>
                 </c:pt>
@@ -2426,9 +2420,6 @@
                   <c:v>02/2023</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>02/2023</c:v>
-                </c:pt>
-                <c:pt idx="245">
                   <c:v>02/2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -2436,10 +2427,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$247</c:f>
+              <c:f>Retornos!$C$2:$C$246</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="246"/>
+                <c:ptCount val="245"/>
                 <c:pt idx="0">
                   <c:v>-0.001489662057293506</c:v>
                 </c:pt>
@@ -3174,9 +3165,6 @@
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>0.01656155082250432</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>-0.01090531576723075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3588,6 +3576,11 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -7057,6 +7050,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
